--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="228">
   <si>
     <t>REM</t>
   </si>
@@ -88,121 +88,286 @@
     <t>CAMION</t>
   </si>
   <si>
+    <t>CONIDEC</t>
+  </si>
+  <si>
+    <t>GALAN</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>ALAMEDA DEL RIO</t>
+  </si>
+  <si>
+    <t>SEC. MIRAMAR</t>
+  </si>
+  <si>
+    <t>SECTOR MIRAMAR</t>
+  </si>
+  <si>
+    <t>BUENA VISTA</t>
+  </si>
+  <si>
+    <t>COUN.CLUB VILLA</t>
+  </si>
+  <si>
+    <t>ADELITA DE CHAR</t>
+  </si>
+  <si>
+    <t>LOS ALMENDROS</t>
+  </si>
+  <si>
+    <t>LOS ROBLES</t>
+  </si>
+  <si>
+    <t>VILLA LAS MORAS</t>
+  </si>
+  <si>
+    <t>URB. EL MANANTIAL</t>
+  </si>
+  <si>
+    <t>C.METROPOLITANA</t>
+  </si>
+  <si>
+    <t>URB NUEVA ESPERANZA</t>
+  </si>
+  <si>
+    <t>COSTA HERMOSA</t>
+  </si>
+  <si>
+    <t>LAS PALMAS</t>
+  </si>
+  <si>
+    <t>LA VICTORIA</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t>PUMAREJO</t>
+  </si>
+  <si>
+    <t>LOS ANDES</t>
+  </si>
+  <si>
+    <t>SAN FELIPE</t>
+  </si>
+  <si>
+    <t>LIPAYA</t>
+  </si>
+  <si>
+    <t>VILLA SEVERA</t>
+  </si>
+  <si>
+    <t>CIUDAD JARDIN</t>
+  </si>
+  <si>
+    <t>BELLO HORIZONTE</t>
+  </si>
+  <si>
+    <t>LA CUMBRE</t>
+  </si>
+  <si>
+    <t>ALTOS DEL PRADO</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>BELLAVISTA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>ABAJO</t>
+  </si>
+  <si>
+    <t>CHIQUINQUIRA</t>
+  </si>
+  <si>
+    <t>PARAISO</t>
+  </si>
+  <si>
+    <t>CARNERO</t>
+  </si>
+  <si>
+    <t>CARIBE VERDE</t>
+  </si>
+  <si>
     <t>LA PRADERA</t>
   </si>
   <si>
-    <t>ALAMEDA DEL RIO</t>
+    <t>COLINA CAMPESTRE</t>
+  </si>
+  <si>
+    <t>EL SILENCIO</t>
+  </si>
+  <si>
+    <t>OLAYA</t>
+  </si>
+  <si>
+    <t>EL RECREO</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>EL POBLADO</t>
   </si>
   <si>
     <t>EL TABOR</t>
   </si>
   <si>
-    <t>LA CUMBRE</t>
-  </si>
-  <si>
-    <t>EL POBLADO</t>
-  </si>
-  <si>
-    <t>BUENA VISTA</t>
-  </si>
-  <si>
-    <t>COUN.CLUB VILLA</t>
-  </si>
-  <si>
-    <t>ADELITA DE CHAR</t>
-  </si>
-  <si>
-    <t>CARIBE VERDE</t>
-  </si>
-  <si>
-    <t>COLINA CAMPESTRE</t>
-  </si>
-  <si>
-    <t>SEC. MIRAMAR</t>
-  </si>
-  <si>
-    <t>SECTOR MIRAMAR</t>
-  </si>
-  <si>
-    <t>PARAISO</t>
-  </si>
-  <si>
-    <t>CIUDAD JARDIN</t>
-  </si>
-  <si>
-    <t>BELLO HORIZONTE</t>
-  </si>
-  <si>
-    <t>ALTOS DEL PRADO</t>
-  </si>
-  <si>
-    <t>PRADO</t>
-  </si>
-  <si>
-    <t>BELLAVISTA</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>ABAJO</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>CHIQUINQUIRA</t>
-  </si>
-  <si>
-    <t>LIPAYA</t>
-  </si>
-  <si>
-    <t>SAN FELIPE</t>
-  </si>
-  <si>
-    <t>LOS ANDES</t>
-  </si>
-  <si>
-    <t>PUMAREJO</t>
-  </si>
-  <si>
-    <t>EL CARMEN</t>
-  </si>
-  <si>
-    <t>LA VICTORIA</t>
-  </si>
-  <si>
-    <t>LAS PALMAS</t>
-  </si>
-  <si>
-    <t>GALAN</t>
-  </si>
-  <si>
-    <t>VILLA SEVERA</t>
-  </si>
-  <si>
-    <t>CONIDEC</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>EL RECREO</t>
-  </si>
-  <si>
-    <t>OLAYA</t>
-  </si>
-  <si>
-    <t>EL SILENCIO</t>
+    <t xml:space="preserve">CL  48B  3ASUR  04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  3A  36  27  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  21  23  22  AP  1  PI  1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  116  42C  80 APTO 1106 TR E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  116  42 C  80  AP  206  BL  B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR  44  102  72  BL  2  AP  514 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  102  43  35  BL  5  AP  928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR  44  100  82  AP  326  BL  7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR  44  102  167  AP  1041  TO  5 </t>
+  </si>
+  <si>
+    <t>CL  104  51B  154  CS  53</t>
+  </si>
+  <si>
+    <t>TR  3B  22  246  BL  1  AP  504</t>
+  </si>
+  <si>
+    <t>CL  20A  17  45  PI  1  AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  12BSCALMENDROSCAMPESTRE  78C  59 </t>
+  </si>
+  <si>
+    <t>CR  13  77B  30  PI  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA  1C  66  02      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  10A  74A  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  13  68  11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  54B  6F  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA  77  56  39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  44  30  103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  35  7F  23  AP  1 </t>
+  </si>
+  <si>
+    <t>CR  10B  45C2  28  CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  47C  21  38  AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  48  19E  20 APTO 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  61  20B  25 </t>
+  </si>
+  <si>
+    <t>CL  57  21B  146  BL  3  AP  603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  24B  72  97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  70C  9J1  25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  48  54D  41  CASA  CS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  79B  42F  158  AP  304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  42E  80  139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  42F  84B  50  CS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  90  42B1  51  PI  2  AP  2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  50  76  19  LC  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  55  82  227  AP  1403  PI  14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  63  64  03  AP  4C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  58  66  32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  40  50  61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  42  29  41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  74  82  82  AP  406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  26  17D  23  AP  503  TO  6 </t>
+  </si>
+  <si>
+    <t>CR  9G  136  132  BL  10  AP  104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  9G  DIAGONAL 136  132 TORRE 10 APTO.104 </t>
   </si>
   <si>
     <t xml:space="preserve">CR  37  115  75 </t>
   </si>
   <si>
-    <t xml:space="preserve">CL  116  42C  80 APTO 1106 TR E </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  116  42 C  80  AP  206  BL  B </t>
+    <t>CR  57  133  170  CS  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  26B  73C  71  PI  1  AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  68B  29   60  AP  1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  41  52  24  AP  301B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  41  38  67  PI  5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  91  46  80  AP  204  </t>
   </si>
   <si>
     <t xml:space="preserve">CL  99AMIRAMAR  42F  211  BL  3  AP  301 </t>
@@ -211,379 +376,319 @@
     <t>CL  96  42c  29  BL  2  AP  204</t>
   </si>
   <si>
-    <t xml:space="preserve">CL  90  42B1  51  PI  2  AP  2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  91  46  80  AP  204  </t>
-  </si>
-  <si>
-    <t>CL  104  51B  154  CS  53</t>
-  </si>
-  <si>
-    <t>TR  3B  22  246  BL  1  AP  504</t>
-  </si>
-  <si>
-    <t>CL  20A  17  45  PI  1  AP</t>
-  </si>
-  <si>
-    <t>CR  9G  136  132  BL  10  AP  104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  9G  DIAGONAL 136  132 TORRE 10 APTO.104 </t>
-  </si>
-  <si>
-    <t>CR  57  133  170  CS  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR  44  102  72  BL  2  AP  514 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  102  43  35  BL  5  AP  928 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR  44  100  82  AP  326  BL  7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR  44  102  167  AP  1041  TO  5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  74  82  82  AP  406 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  79B  42F  158  AP  304 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  42E  80  139 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  42F  84B  50  CS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  50  76  19  LC  16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  55  82  227  AP  1403  PI  14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  63  64  03  AP  4C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  58  66  32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  40  50  61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  41  38  67  PI  5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  42  29  41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  70C  9J1  25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  24B  72  97 </t>
-  </si>
-  <si>
-    <t>CL  57  21B  146  BL  3  AP  603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  61  20B  25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  47C  21  38  AP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  48  19E  20 APTO 1 </t>
-  </si>
-  <si>
-    <t>CR  10B  45C2  28  CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  35  7F  23  AP  1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  3A  36  27  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  48  54D  41  CASA  CS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  48B  3ASUR  04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  21  23  22  AP  1  PI  1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  41  52  24  AP  301B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  68B  29   60  AP  1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  26B  73C  71  PI  1  AP </t>
+    <t>BAQ - CONIDEC</t>
+  </si>
+  <si>
+    <t>BAQ - GALAN</t>
+  </si>
+  <si>
+    <t>BAQ - NIEVES</t>
+  </si>
+  <si>
+    <t>BAQ - ALAMEDA DEL RIO</t>
+  </si>
+  <si>
+    <t>BAQ - SECTOR MIRAMAR</t>
+  </si>
+  <si>
+    <t>BAQ - BUENA VISTA</t>
+  </si>
+  <si>
+    <t>BAQ - COUN.CLUB VILLA</t>
+  </si>
+  <si>
+    <t>BAQ - ADELITA DE CHAR</t>
+  </si>
+  <si>
+    <t>SOL - LOS ALMENDROS</t>
+  </si>
+  <si>
+    <t>SOL - LOS ROBLES</t>
+  </si>
+  <si>
+    <t>SOL - VILLA LAS MORAS</t>
+  </si>
+  <si>
+    <t>SOL - URB. EL MANANTIAL</t>
+  </si>
+  <si>
+    <t>SOL - C.METROPOLITANA</t>
+  </si>
+  <si>
+    <t>SOL - LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>SOL - COSTA HERMOSA</t>
+  </si>
+  <si>
+    <t>BAQ - LAS PALMAS</t>
+  </si>
+  <si>
+    <t>BAQ - LA VICTORIA</t>
+  </si>
+  <si>
+    <t>BAQ - EL CARMEN</t>
+  </si>
+  <si>
+    <t>BAQ - PUMAREJO</t>
+  </si>
+  <si>
+    <t>BAQ - LOS ANDES</t>
+  </si>
+  <si>
+    <t>BAQ - SAN FELIPE</t>
+  </si>
+  <si>
+    <t>BAQ - LIPAYA</t>
+  </si>
+  <si>
+    <t>SOL - VILLA CEVERA</t>
+  </si>
+  <si>
+    <t>BAQ - CIUDAD JARDIN</t>
+  </si>
+  <si>
+    <t>BAQ - BELLO HORIZONTE</t>
+  </si>
+  <si>
+    <t>BAQ - LA CUMBRE</t>
+  </si>
+  <si>
+    <t>BAQ - ALTOS DEL PRADO</t>
+  </si>
+  <si>
+    <t>BAQ - PRADO</t>
+  </si>
+  <si>
+    <t>BAQ - BELLAVISTA</t>
+  </si>
+  <si>
+    <t>BAQ - MODELO</t>
+  </si>
+  <si>
+    <t>BAQ - ABAJO</t>
+  </si>
+  <si>
+    <t>BAQ - CHIQUINQUIRA</t>
+  </si>
+  <si>
+    <t>BAQ - PARAISO</t>
+  </si>
+  <si>
+    <t>SOL - CARNERO</t>
+  </si>
+  <si>
+    <t>BAQ - CIUDAD CARIBE</t>
   </si>
   <si>
     <t>BAQ - LA PRADERA</t>
   </si>
   <si>
-    <t>BAQ - ALAMEDA DEL RIO</t>
+    <t>BAQ - COLINA CAMPESTRE</t>
+  </si>
+  <si>
+    <t>BAQ - EL SILENCIO</t>
+  </si>
+  <si>
+    <t>BAQ - OLAYA</t>
+  </si>
+  <si>
+    <t>BAQ - EL RECREO</t>
+  </si>
+  <si>
+    <t>BAQ - ROSARIO</t>
+  </si>
+  <si>
+    <t>BAQ - EL POBLADO</t>
   </si>
   <si>
     <t>BAQ - EL TABOR</t>
   </si>
   <si>
-    <t>BAQ - LA CUMBRE</t>
-  </si>
-  <si>
-    <t>BAQ - EL POBLADO</t>
-  </si>
-  <si>
-    <t>BAQ - BUENA VISTA</t>
-  </si>
-  <si>
-    <t>BAQ - COUN.CLUB VILLA</t>
-  </si>
-  <si>
-    <t>BAQ - ADELITA DE CHAR</t>
-  </si>
-  <si>
-    <t>BAQ - CIUDAD CARIBE</t>
-  </si>
-  <si>
-    <t>BAQ - COLINA CAMPESTRE</t>
-  </si>
-  <si>
-    <t>BAQ - SECTOR MIRAMAR</t>
-  </si>
-  <si>
-    <t>BAQ - PARAISO</t>
-  </si>
-  <si>
-    <t>BAQ - CIUDAD JARDIN</t>
-  </si>
-  <si>
-    <t>BAQ - BELLO HORIZONTE</t>
-  </si>
-  <si>
-    <t>BAQ - ALTOS DEL PRADO</t>
-  </si>
-  <si>
-    <t>BAQ - PRADO</t>
-  </si>
-  <si>
-    <t>BAQ - BELLAVISTA</t>
-  </si>
-  <si>
-    <t>BAQ - MODELO</t>
-  </si>
-  <si>
-    <t>BAQ - ABAJO</t>
-  </si>
-  <si>
-    <t>BAQ - ROSARIO</t>
-  </si>
-  <si>
-    <t>BAQ - CHIQUINQUIRA</t>
-  </si>
-  <si>
-    <t>BAQ - LIPAYA</t>
-  </si>
-  <si>
-    <t>BAQ - SAN FELIPE</t>
-  </si>
-  <si>
-    <t>BAQ - LOS ANDES</t>
-  </si>
-  <si>
-    <t>BAQ - PUMAREJO</t>
-  </si>
-  <si>
-    <t>BAQ - EL CARMEN</t>
-  </si>
-  <si>
-    <t>BAQ - LA VICTORIA</t>
-  </si>
-  <si>
-    <t>BAQ - LAS PALMAS</t>
-  </si>
-  <si>
-    <t>BAQ - GALAN</t>
-  </si>
-  <si>
-    <t>SOL - VILLA CEVERA</t>
-  </si>
-  <si>
-    <t>BAQ - CONIDEC</t>
-  </si>
-  <si>
-    <t>BAQ - NIEVES</t>
-  </si>
-  <si>
-    <t>BAQ - EL RECREO</t>
-  </si>
-  <si>
-    <t>BAQ - OLAYA</t>
-  </si>
-  <si>
-    <t>BAQ - EL SILENCIO</t>
+    <t>BAJA</t>
   </si>
   <si>
     <t>MEDIA</t>
   </si>
   <si>
-    <t>BAJA</t>
-  </si>
-  <si>
     <t>ATLANTICO</t>
   </si>
   <si>
     <t>BARRANQUILLA</t>
   </si>
   <si>
+    <t>SOLEDAD</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>XX</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>No Definido</t>
   </si>
   <si>
     <t>COMPLETA</t>
   </si>
   <si>
+    <t>3008303232-3003006831</t>
+  </si>
+  <si>
+    <t>3265427-3218445807-3008577035</t>
+  </si>
+  <si>
+    <t>3023306410-3003446698-3005400720</t>
+  </si>
+  <si>
+    <t>3013983821-3172760919-3661298</t>
+  </si>
+  <si>
+    <t>3184001236-3152930513</t>
+  </si>
+  <si>
+    <t>3042113374-3016254865-3012997612</t>
+  </si>
+  <si>
+    <t>3144748672-3213112050-3106941903</t>
+  </si>
+  <si>
+    <t>3043445251-3003765369-3004351352</t>
+  </si>
+  <si>
+    <t>3117732675-3103906768-3125181901</t>
+  </si>
+  <si>
+    <t>3008151499</t>
+  </si>
+  <si>
+    <t>3014631170-3003109946</t>
+  </si>
+  <si>
+    <t>3044140570-3006619610</t>
+  </si>
+  <si>
+    <t>3008833472-3244532327-3008433601</t>
+  </si>
+  <si>
+    <t>3004892464-3052757873</t>
+  </si>
+  <si>
+    <t>3002867575-3015583147</t>
+  </si>
+  <si>
+    <t>3017736847-3242140609</t>
+  </si>
+  <si>
+    <t>3135215513-3003266674-3004771007</t>
+  </si>
+  <si>
+    <t>3053232293</t>
+  </si>
+  <si>
+    <t>3114247132-3268744-3007132598</t>
+  </si>
+  <si>
+    <t>3742573-3137446109-3054433358</t>
+  </si>
+  <si>
+    <t>3015570764-3243458422</t>
+  </si>
+  <si>
+    <t>3122067524-3012088756</t>
+  </si>
+  <si>
+    <t>3215434845-3217101794-3017514173</t>
+  </si>
+  <si>
+    <t>3116354060-3127426485-3127416485</t>
+  </si>
+  <si>
+    <t>3117234835-3218131444</t>
+  </si>
+  <si>
+    <t>3163616125-3152298227-3006092270</t>
+  </si>
+  <si>
+    <t>3012500579-3663307-3003214986</t>
+  </si>
+  <si>
+    <t>3146839506</t>
+  </si>
+  <si>
+    <t>3046167841-3641780</t>
+  </si>
+  <si>
+    <t>3125001644-3226489596-3127483289</t>
+  </si>
+  <si>
+    <t>3138693507-3223943335</t>
+  </si>
+  <si>
+    <t>3473909-3015910076-3797105</t>
+  </si>
+  <si>
+    <t>3004005951-3862884</t>
+  </si>
+  <si>
+    <t>3776250-3008155651-3017547793</t>
+  </si>
+  <si>
+    <t>3157066242-3135714133-4228855</t>
+  </si>
+  <si>
+    <t>3736153-3005364400-3072544</t>
+  </si>
+  <si>
+    <t>3017843874-3143027025</t>
+  </si>
+  <si>
+    <t>3162582460-3173499042</t>
+  </si>
+  <si>
+    <t>3705889-3103798735-3003426885</t>
+  </si>
+  <si>
+    <t>3014320392-3015380051</t>
+  </si>
+  <si>
+    <t>3157158755-3162879041-3005787315</t>
+  </si>
+  <si>
+    <t>3017082213-3212323133-3152392498</t>
+  </si>
+  <si>
     <t>3143011484-3012987708</t>
   </si>
   <si>
-    <t>3013983821-3172760919-3661298</t>
-  </si>
-  <si>
-    <t>3184001236-3152930513</t>
+    <t>3107316036-3166170391-3205687284</t>
+  </si>
+  <si>
+    <t>3162784249-3654164-3157236115</t>
+  </si>
+  <si>
+    <t>3014792931</t>
+  </si>
+  <si>
+    <t>573006385909-3002653019-3006385909</t>
+  </si>
+  <si>
+    <t>3016070254-3790443-3042427577</t>
+  </si>
+  <si>
+    <t>3126039779-7271603-3114010997</t>
   </si>
   <si>
     <t>3178267-3002414841</t>
   </si>
   <si>
     <t>3015339254-8782519-3043778445</t>
-  </si>
-  <si>
-    <t>3004005951-3862884</t>
-  </si>
-  <si>
-    <t>3126039779-7271603-3114010997</t>
-  </si>
-  <si>
-    <t>3008151499</t>
-  </si>
-  <si>
-    <t>3014631170-3003109946</t>
-  </si>
-  <si>
-    <t>3044140570-3006619610</t>
-  </si>
-  <si>
-    <t>3017082213-3212323133-3152392498</t>
-  </si>
-  <si>
-    <t>3107316036-3166170391-3205687284</t>
-  </si>
-  <si>
-    <t>3042113374-3016254865-3012997612</t>
-  </si>
-  <si>
-    <t>3144748672-3213112050-3106941903</t>
-  </si>
-  <si>
-    <t>3043445251-3003765369-3004351352</t>
-  </si>
-  <si>
-    <t>3117732675-3103906768-3125181901</t>
-  </si>
-  <si>
-    <t>3014320392-3015380051</t>
-  </si>
-  <si>
-    <t>3125001644-3226489596-3127483289</t>
-  </si>
-  <si>
-    <t>3138693507-3223943335</t>
-  </si>
-  <si>
-    <t>3473909-3015910076-3797105</t>
-  </si>
-  <si>
-    <t>3776250-3008155651-3017547793</t>
-  </si>
-  <si>
-    <t>3157066242-3135714133-4228855</t>
-  </si>
-  <si>
-    <t>3736153-3005364400-3072544</t>
-  </si>
-  <si>
-    <t>3017843874-3143027025</t>
-  </si>
-  <si>
-    <t>3162582460-3173499042</t>
-  </si>
-  <si>
-    <t>3016070254-3790443-3042427577</t>
-  </si>
-  <si>
-    <t>3705889-3103798735-3003426885</t>
-  </si>
-  <si>
-    <t>3146839506</t>
-  </si>
-  <si>
-    <t>3012500579-3663307-3003214986</t>
-  </si>
-  <si>
-    <t>3163616125-3152298227-3006092270</t>
-  </si>
-  <si>
-    <t>3117234835-3218131444</t>
-  </si>
-  <si>
-    <t>3215434845-3217101794-3017514173</t>
-  </si>
-  <si>
-    <t>3116354060-3127426485-3127416485</t>
-  </si>
-  <si>
-    <t>3122067524-3012088756</t>
-  </si>
-  <si>
-    <t>3015570764-3243458422</t>
-  </si>
-  <si>
-    <t>3265427-3218445807-3008577035</t>
-  </si>
-  <si>
-    <t>3046167841-3641780</t>
-  </si>
-  <si>
-    <t>3008303232-3003006831</t>
-  </si>
-  <si>
-    <t>3023306410-3003446698-3005400720</t>
-  </si>
-  <si>
-    <t>573006385909-3002653019-3006385909</t>
-  </si>
-  <si>
-    <t>3014792931</t>
-  </si>
-  <si>
-    <t>3162784249-3654164-3157236115</t>
   </si>
   <si>
     <t>JA</t>
@@ -954,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,10 +1141,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
-        <v>1000</v>
+        <v>683</v>
       </c>
       <c r="B2">
-        <v>2966982</v>
+        <v>2967198</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1051,61 +1156,61 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>10.97778129577637</v>
+        <v>10.93458271026611</v>
       </c>
       <c r="H2">
-        <v>-74.842529296875</v>
+        <v>-74.80440521240234</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="J2">
-        <v>7002431943</v>
+        <v>7002432096</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S2">
-        <v>3143011484</v>
+        <v>3003006831</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X2">
-        <v>2.441</v>
+        <v>0.249</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1113,10 +1218,10 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B3">
-        <v>2967157</v>
+        <v>2964515</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1128,61 +1233,61 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>10.99570846557617</v>
+        <v>10.93748188018799</v>
       </c>
       <c r="H3">
-        <v>-74.84067535400391</v>
+        <v>-74.790283203125</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J3">
-        <v>7002432066</v>
+        <v>7002431717</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="L3">
         <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S3">
-        <v>3172760918</v>
+        <v>3218445807</v>
       </c>
       <c r="T3" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V3" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W3" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X3">
-        <v>0.05</v>
+        <v>1.432</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1190,10 +1295,10 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1">
-        <v>36</v>
+        <v>438</v>
       </c>
       <c r="B4">
-        <v>2965141</v>
+        <v>2966917</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1202,64 +1307,64 @@
         <v>44601</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>10.99570846557617</v>
+        <v>10.95276832580566</v>
       </c>
       <c r="H4">
-        <v>-74.84067535400391</v>
+        <v>-74.78013610839844</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J4">
-        <v>7002432132</v>
+        <v>7002431933</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S4">
-        <v>3184001236</v>
+        <v>3005400720</v>
       </c>
       <c r="T4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="U4" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V4" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W4" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X4">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1267,10 +1372,10 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>682</v>
       </c>
       <c r="B5">
-        <v>2964052</v>
+        <v>2967157</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1279,64 +1384,64 @@
         <v>44601</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G5">
-        <v>11.00191307067871</v>
+        <v>10.99570846557617</v>
       </c>
       <c r="H5">
-        <v>-74.83025360107422</v>
+        <v>-74.84067535400391</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J5">
-        <v>7002432412</v>
+        <v>7002432066</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S5">
-        <v>3002414841</v>
+        <v>3172760918</v>
       </c>
       <c r="T5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="U5" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V5" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W5" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X5">
-        <v>0.179</v>
+        <v>0.05</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1344,10 +1449,10 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1">
-        <v>399</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>2962393</v>
+        <v>2965141</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1356,64 +1461,64 @@
         <v>44601</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>11.00191307067871</v>
+        <v>10.99570846557617</v>
       </c>
       <c r="H6">
-        <v>-74.83025360107422</v>
+        <v>-74.84067535400391</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J6">
-        <v>7002431656</v>
+        <v>7002432132</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L6">
         <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S6">
-        <v>3015339254</v>
+        <v>3184001236</v>
       </c>
       <c r="T6" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V6" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W6" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X6">
-        <v>1.442</v>
+        <v>0.3</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1421,10 +1526,10 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B7">
-        <v>2966852</v>
+        <v>2967535</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1433,22 +1538,22 @@
         <v>44601</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>10.99914264678955</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H7">
-        <v>-74.8282470703125</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J7">
-        <v>7002432128</v>
+        <v>7002432444</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1457,40 +1562,40 @@
         <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S7">
-        <v>3004005951</v>
+        <v>3042113374</v>
       </c>
       <c r="T7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V7" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X7">
-        <v>0.745</v>
+        <v>0.242</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1498,10 +1603,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1">
-        <v>986</v>
+        <v>439</v>
       </c>
       <c r="B8">
-        <v>2956413</v>
+        <v>2966925</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1510,22 +1615,22 @@
         <v>44601</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>11.00696754455566</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H8">
-        <v>-74.82685852050781</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J8">
-        <v>7002431714</v>
+        <v>7002432379</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1534,40 +1639,40 @@
         <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S8">
-        <v>3126039779</v>
+        <v>3213824925</v>
       </c>
       <c r="T8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V8" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W8" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X8">
-        <v>0.865</v>
+        <v>1.22</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1575,10 +1680,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B9">
-        <v>2967520</v>
+        <v>2967091</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1587,64 +1692,64 @@
         <v>44601</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>11.01446342468262</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H9">
-        <v>-74.82730865478516</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="J9">
-        <v>7002432438</v>
+        <v>7002432029</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S9">
-        <v>3008151499</v>
+        <v>3003765369</v>
       </c>
       <c r="T9" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V9" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W9" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X9">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1652,10 +1757,10 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="B10">
-        <v>2950002</v>
+        <v>2962143</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1664,64 +1769,64 @@
         <v>44601</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10">
-        <v>11.02181053161621</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H10">
-        <v>-74.87113952636719</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="J10">
-        <v>7002431600</v>
+        <v>7002431918</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S10">
-        <v>3014631170</v>
+        <v>3117732675</v>
       </c>
       <c r="T10" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V10" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X10">
-        <v>0.97</v>
+        <v>6.408</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1729,10 +1834,10 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B11">
-        <v>2965985</v>
+        <v>2967520</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1741,64 +1846,64 @@
         <v>44601</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>11.03202056884766</v>
+        <v>11.01446342468262</v>
       </c>
       <c r="H11">
-        <v>-74.87136840820312</v>
+        <v>-74.82730865478516</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J11">
-        <v>7002431719</v>
+        <v>7002432438</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S11">
-        <v>3006619610</v>
+        <v>3008151499</v>
       </c>
       <c r="T11" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V11" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W11" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X11">
-        <v>0.719</v>
+        <v>0.39</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1806,10 +1911,10 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1">
-        <v>686</v>
+        <v>357</v>
       </c>
       <c r="B12">
-        <v>2967367</v>
+        <v>2950002</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1818,75 +1923,75 @@
         <v>44601</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G12">
-        <v>10.95015811920166</v>
+        <v>11.02181053161621</v>
       </c>
       <c r="H12">
-        <v>-74.85592651367188</v>
+        <v>-74.87113952636719</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="J12">
-        <v>7002432299</v>
+        <v>7002431600</v>
       </c>
       <c r="K12">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S12">
-        <v>3017082213</v>
+        <v>3014631170</v>
       </c>
       <c r="T12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V12" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W12" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X12">
-        <v>0.122</v>
+        <v>0.97</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1">
-        <v>684</v>
+        <v>431</v>
       </c>
       <c r="B13">
-        <v>2967337</v>
+        <v>2965985</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1898,72 +2003,72 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>10.95015811920166</v>
+        <v>11.03202056884766</v>
       </c>
       <c r="H13">
-        <v>-74.85592651367188</v>
+        <v>-74.87136840820312</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J13">
-        <v>7002432292</v>
+        <v>7002431719</v>
       </c>
       <c r="K13">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S13">
-        <v>3212323133</v>
+        <v>3006619610</v>
       </c>
       <c r="T13" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V13" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W13" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X13">
-        <v>1.09</v>
+        <v>0.719</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>997</v>
       </c>
       <c r="B14">
-        <v>2949112</v>
+        <v>2965871</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1975,61 +2080,61 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>10.98295974731445</v>
+        <v>10.91901683807373</v>
       </c>
       <c r="H14">
-        <v>-74.83267211914062</v>
+        <v>-74.81688690185547</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="J14">
-        <v>7002431772</v>
+        <v>7002432307</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="L14">
         <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S14">
-        <v>3109803456</v>
+        <v>3008833472</v>
       </c>
       <c r="T14" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="U14" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V14" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X14">
-        <v>0.745</v>
+        <v>0.305</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -2037,10 +2142,10 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1">
-        <v>451</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>2967535</v>
+        <v>2957001</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2049,64 +2154,64 @@
         <v>44601</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>11.00435161590576</v>
+        <v>10.91901683807373</v>
       </c>
       <c r="H15">
-        <v>-74.83413696289062</v>
+        <v>-74.81688690185547</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="J15">
-        <v>7002432444</v>
+        <v>7002423505</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="L15">
         <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S15">
-        <v>3042113374</v>
+        <v>3052757873</v>
       </c>
       <c r="T15" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V15" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W15" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X15">
-        <v>0.242</v>
+        <v>2.447</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -2114,10 +2219,10 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1">
-        <v>439</v>
+        <v>671</v>
       </c>
       <c r="B16">
-        <v>2966925</v>
+        <v>2960952</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2126,64 +2231,64 @@
         <v>44601</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>11.00435161590576</v>
+        <v>10.92058753967285</v>
       </c>
       <c r="H16">
-        <v>-74.83413696289062</v>
+        <v>-74.80829620361328</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="J16">
-        <v>7002432379</v>
+        <v>7002431711</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="L16">
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S16">
-        <v>3213824925</v>
+        <v>3058112673</v>
       </c>
       <c r="T16" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V16" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W16" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X16">
-        <v>1.22</v>
+        <v>0.822</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -2191,10 +2296,10 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>442</v>
+        <v>667</v>
       </c>
       <c r="B17">
-        <v>2967091</v>
+        <v>2955730</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2203,64 +2308,64 @@
         <v>44601</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>11.00435161590576</v>
+        <v>10.91276359558105</v>
       </c>
       <c r="H17">
-        <v>-74.83413696289062</v>
+        <v>-74.80815124511719</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="J17">
-        <v>7002432029</v>
+        <v>7002420639</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="L17">
         <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S17">
-        <v>3003765369</v>
+        <v>3242140609</v>
       </c>
       <c r="T17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="U17" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V17" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X17">
-        <v>3.93</v>
+        <v>1.825</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -2268,10 +2373,10 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>396</v>
+        <v>681</v>
       </c>
       <c r="B18">
-        <v>2962143</v>
+        <v>2966706</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2280,64 +2385,64 @@
         <v>44601</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18">
-        <v>11.00435161590576</v>
+        <v>10.90456676483154</v>
       </c>
       <c r="H18">
-        <v>-74.83413696289062</v>
+        <v>-74.80835723876953</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="J18">
-        <v>7002431918</v>
+        <v>7002431607</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="L18">
         <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S18">
-        <v>3117732675</v>
+        <v>3003266674</v>
       </c>
       <c r="T18" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="U18" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V18" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X18">
-        <v>6.408</v>
+        <v>1.33</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -2345,10 +2450,10 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>419</v>
+        <v>679</v>
       </c>
       <c r="B19">
-        <v>2964709</v>
+        <v>2965274</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2357,64 +2462,64 @@
         <v>44601</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G19">
-        <v>11.01517295837402</v>
+        <v>10.90308952331543</v>
       </c>
       <c r="H19">
-        <v>-74.80654144287109</v>
+        <v>-74.79138946533203</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J19">
-        <v>7002431843</v>
+        <v>7002431793</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="L19">
         <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S19">
-        <v>3014320392</v>
+        <v>3053232293</v>
       </c>
       <c r="T19" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="U19" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V19" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X19">
-        <v>0.451</v>
+        <v>1.223</v>
       </c>
       <c r="Y19">
         <v>2</v>
@@ -2422,87 +2527,87 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>349</v>
+        <v>1001</v>
       </c>
       <c r="B20">
-        <v>2920852</v>
+        <v>2967042</v>
       </c>
       <c r="C20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D20" s="2">
         <v>44601</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20">
-        <v>10.99208354949951</v>
+        <v>10.90969753265381</v>
       </c>
       <c r="H20">
-        <v>-74.82035827636719</v>
+        <v>-74.76608276367188</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J20">
-        <v>7002431727</v>
+        <v>7002432178</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L20">
         <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S20">
-        <v>3125001644</v>
+        <v>3007132598</v>
       </c>
       <c r="T20" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="U20" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V20" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X20">
-        <v>0.229</v>
+        <v>0.305</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>435</v>
+        <v>995</v>
       </c>
       <c r="B21">
-        <v>2966685</v>
+        <v>2962829</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2511,75 +2616,75 @@
         <v>44601</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G21">
-        <v>10.99208354949951</v>
+        <v>10.93962287902832</v>
       </c>
       <c r="H21">
-        <v>-74.82035827636719</v>
+        <v>-74.77147674560547</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J21">
-        <v>7002431729</v>
+        <v>7002431854</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="L21">
         <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S21">
-        <v>3223943335</v>
+        <v>3054433358</v>
       </c>
       <c r="T21" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="U21" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V21" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X21">
-        <v>5.001</v>
+        <v>0.825</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>449</v>
+        <v>678</v>
       </c>
       <c r="B22">
-        <v>2967518</v>
+        <v>2965168</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2588,75 +2693,75 @@
         <v>44601</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22">
-        <v>10.99525833129883</v>
+        <v>10.94451999664307</v>
       </c>
       <c r="H22">
-        <v>-74.82118988037109</v>
+        <v>-74.78980255126953</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="J22">
-        <v>7002432442</v>
+        <v>7002431687</v>
       </c>
       <c r="K22">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S22">
-        <v>3015910076</v>
+        <v>3243458422</v>
       </c>
       <c r="T22" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="U22" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V22" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W22" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X22">
-        <v>2.087</v>
+        <v>0.745</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="B23">
-        <v>2966739</v>
+        <v>2954864</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2665,75 +2770,75 @@
         <v>44601</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G23">
-        <v>11.00480079650879</v>
+        <v>10.95140171051025</v>
       </c>
       <c r="H23">
-        <v>-74.8116455078125</v>
+        <v>-74.79917907714844</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="J23">
-        <v>7002431651</v>
+        <v>7002431672</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="L23">
         <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S23">
-        <v>3008155651</v>
+        <v>3122067524</v>
       </c>
       <c r="T23" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="U23" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V23" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X23">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1">
-        <v>685</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>2967350</v>
+        <v>2959024</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2742,75 +2847,75 @@
         <v>44601</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>10.99899864196777</v>
+        <v>10.96424674987793</v>
       </c>
       <c r="H24">
-        <v>-74.80156707763672</v>
+        <v>-74.79908752441406</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="J24">
-        <v>7002432288</v>
+        <v>7002432347</v>
       </c>
       <c r="K24">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L24">
         <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S24">
-        <v>3168748238</v>
+        <v>3017514173</v>
       </c>
       <c r="T24" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="U24" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V24" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W24" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X24">
-        <v>1.086</v>
+        <v>0.063</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1">
-        <v>441</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>2967030</v>
+        <v>2967223</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -2819,75 +2924,75 @@
         <v>44601</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G25">
-        <v>11.00149631500244</v>
+        <v>10.96424674987793</v>
       </c>
       <c r="H25">
-        <v>-74.80015563964844</v>
+        <v>-74.79908752441406</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J25">
-        <v>7002431941</v>
+        <v>7002432151</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L25">
         <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N25" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S25">
-        <v>3008853811</v>
+        <v>3116354060</v>
       </c>
       <c r="T25" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="U25" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V25" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W25" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X25">
-        <v>2.444</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>2967474</v>
+        <v>2965641</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2896,75 +3001,75 @@
         <v>44601</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G26">
-        <v>10.99482822418213</v>
+        <v>10.96498203277588</v>
       </c>
       <c r="H26">
-        <v>-74.78803253173828</v>
+        <v>-74.80244445800781</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J26">
-        <v>7002432408</v>
+        <v>7002432057</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L26">
         <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N26" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O26" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S26">
-        <v>3143027025</v>
+        <v>3117234835</v>
       </c>
       <c r="T26" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="U26" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V26" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W26" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X26">
-        <v>1.35</v>
+        <v>0.944</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1">
-        <v>446</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>2967217</v>
+        <v>2965649</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2973,75 +3078,75 @@
         <v>44601</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G27">
-        <v>10.99099445343018</v>
+        <v>10.9726390838623</v>
       </c>
       <c r="H27">
-        <v>-74.78353118896484</v>
+        <v>-74.8011474609375</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="J27">
-        <v>7002432284</v>
+        <v>7002431593</v>
       </c>
       <c r="K27">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L27">
         <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N27" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S27">
-        <v>3173499042</v>
+        <v>3006092270</v>
       </c>
       <c r="T27" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="U27" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V27" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W27" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X27">
-        <v>0.104</v>
+        <v>1.329</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B28">
-        <v>2967178</v>
+        <v>2967123</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3050,75 +3155,75 @@
         <v>44601</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G28">
-        <v>10.99099445343018</v>
+        <v>10.97214889526367</v>
       </c>
       <c r="H28">
-        <v>-74.78353118896484</v>
+        <v>-74.80821990966797</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="J28">
-        <v>7002432247</v>
+        <v>7002432280</v>
       </c>
       <c r="K28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L28">
         <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S28">
-        <v>3173499042</v>
+        <v>3003214986</v>
       </c>
       <c r="T28" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="U28" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V28" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W28" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X28">
-        <v>0.271</v>
+        <v>0.987</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1">
-        <v>49</v>
+        <v>676</v>
       </c>
       <c r="B29">
-        <v>2967291</v>
+        <v>2964489</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3127,75 +3232,75 @@
         <v>44601</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G29">
-        <v>10.98511409759521</v>
+        <v>10.96224308013916</v>
       </c>
       <c r="H29">
-        <v>-74.78804779052734</v>
+        <v>-74.81613159179688</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="J29">
-        <v>7002432248</v>
+        <v>7002431688</v>
       </c>
       <c r="K29">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L29">
         <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S29">
-        <v>3016070254</v>
+        <v>3146839506</v>
       </c>
       <c r="T29" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="U29" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V29" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W29" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X29">
-        <v>1.277</v>
+        <v>0.972</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>2963687</v>
+        <v>2949958</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3204,152 +3309,152 @@
         <v>44601</v>
       </c>
       <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30">
+        <v>10.93268775939941</v>
+      </c>
+      <c r="H30">
+        <v>-74.78943634033203</v>
+      </c>
+      <c r="I30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30">
+        <v>7002432159</v>
+      </c>
+      <c r="K30">
         <v>45</v>
       </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30">
-        <v>10.97611999511719</v>
-      </c>
-      <c r="H30">
-        <v>-74.78810119628906</v>
-      </c>
-      <c r="I30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30">
-        <v>7002432328</v>
-      </c>
-      <c r="K30">
-        <v>36</v>
-      </c>
       <c r="L30">
         <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O30" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S30">
-        <v>3003426887</v>
+        <v>3046167841</v>
       </c>
       <c r="T30" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="U30" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V30" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W30" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X30">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1">
-        <v>676</v>
+        <v>349</v>
       </c>
       <c r="B31">
-        <v>2964489</v>
+        <v>2920852</v>
       </c>
       <c r="C31">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D31" s="2">
         <v>44601</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G31">
-        <v>10.96224308013916</v>
+        <v>10.99208354949951</v>
       </c>
       <c r="H31">
-        <v>-74.81613159179688</v>
+        <v>-74.82035827636719</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="J31">
-        <v>7002431688</v>
+        <v>7002431727</v>
       </c>
       <c r="K31">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O31" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S31">
-        <v>3146839506</v>
+        <v>3125001644</v>
       </c>
       <c r="T31" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="U31" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V31" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W31" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X31">
-        <v>0.972</v>
+        <v>0.229</v>
       </c>
       <c r="Y31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B32">
-        <v>2967123</v>
+        <v>2966685</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3358,75 +3463,75 @@
         <v>44601</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G32">
-        <v>10.97214889526367</v>
+        <v>10.99208354949951</v>
       </c>
       <c r="H32">
-        <v>-74.80821990966797</v>
+        <v>-74.82035827636719</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="J32">
-        <v>7002432280</v>
+        <v>7002431729</v>
       </c>
       <c r="K32">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N32" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S32">
-        <v>3003214986</v>
+        <v>3223943335</v>
       </c>
       <c r="T32" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="U32" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V32" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W32" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X32">
-        <v>0.987</v>
+        <v>5.001</v>
       </c>
       <c r="Y32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="B33">
-        <v>2965649</v>
+        <v>2967518</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3435,75 +3540,75 @@
         <v>44601</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G33">
-        <v>10.9726390838623</v>
+        <v>10.99525833129883</v>
       </c>
       <c r="H33">
-        <v>-74.8011474609375</v>
+        <v>-74.82118988037109</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="J33">
-        <v>7002431593</v>
+        <v>7002432442</v>
       </c>
       <c r="K33">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N33" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O33" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S33">
-        <v>3006092270</v>
+        <v>3015910076</v>
       </c>
       <c r="T33" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="U33" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V33" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W33" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X33">
-        <v>1.329</v>
+        <v>2.087</v>
       </c>
       <c r="Y33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>437</v>
       </c>
       <c r="B34">
-        <v>2965641</v>
+        <v>2966852</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3512,75 +3617,75 @@
         <v>44601</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>10.96498203277588</v>
+        <v>10.99914264678955</v>
       </c>
       <c r="H34">
-        <v>-74.80244445800781</v>
+        <v>-74.8282470703125</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J34">
-        <v>7002432057</v>
+        <v>7002432128</v>
       </c>
       <c r="K34">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>72</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S34">
-        <v>3117234835</v>
+        <v>3004005951</v>
       </c>
       <c r="T34" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="U34" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V34" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W34" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X34">
-        <v>0.944</v>
+        <v>0.745</v>
       </c>
       <c r="Y34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1">
-        <v>15</v>
+        <v>436</v>
       </c>
       <c r="B35">
-        <v>2959024</v>
+        <v>2966739</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3589,75 +3694,75 @@
         <v>44601</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G35">
-        <v>10.96424674987793</v>
+        <v>11.00480079650879</v>
       </c>
       <c r="H35">
-        <v>-74.79908752441406</v>
+        <v>-74.8116455078125</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J35">
-        <v>7002432347</v>
+        <v>7002431651</v>
       </c>
       <c r="K35">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L35">
         <v>72</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N35" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O35" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S35">
-        <v>3017514173</v>
+        <v>3008155651</v>
       </c>
       <c r="T35" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="U35" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V35" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W35" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X35">
-        <v>0.063</v>
+        <v>0.1</v>
       </c>
       <c r="Y35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="1">
-        <v>48</v>
+        <v>685</v>
       </c>
       <c r="B36">
-        <v>2967223</v>
+        <v>2967350</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -3666,75 +3771,75 @@
         <v>44601</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G36">
-        <v>10.96424674987793</v>
+        <v>10.99899864196777</v>
       </c>
       <c r="H36">
-        <v>-74.79908752441406</v>
+        <v>-74.80156707763672</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J36">
-        <v>7002432151</v>
+        <v>7002432288</v>
       </c>
       <c r="K36">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L36">
         <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S36">
-        <v>3116354060</v>
+        <v>3168748238</v>
       </c>
       <c r="T36" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="U36" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V36" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W36" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>1.086</v>
       </c>
       <c r="Y36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="B37">
-        <v>2954864</v>
+        <v>2967030</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -3743,75 +3848,75 @@
         <v>44601</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G37">
-        <v>10.95140171051025</v>
+        <v>11.00149631500244</v>
       </c>
       <c r="H37">
-        <v>-74.79917907714844</v>
+        <v>-74.80015563964844</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="J37">
-        <v>7002431672</v>
+        <v>7002431941</v>
       </c>
       <c r="K37">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L37">
         <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N37" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O37" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S37">
-        <v>3122067524</v>
+        <v>3008853811</v>
       </c>
       <c r="T37" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="U37" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V37" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W37" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X37">
-        <v>1.03</v>
+        <v>2.444</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1">
-        <v>678</v>
+        <v>448</v>
       </c>
       <c r="B38">
-        <v>2965168</v>
+        <v>2967474</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -3820,75 +3925,75 @@
         <v>44601</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G38">
-        <v>10.94451999664307</v>
+        <v>10.99482822418213</v>
       </c>
       <c r="H38">
-        <v>-74.78980255126953</v>
+        <v>-74.78803253173828</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="J38">
-        <v>7002431687</v>
+        <v>7002432408</v>
       </c>
       <c r="K38">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="L38">
         <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N38" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S38">
-        <v>3243458422</v>
+        <v>3143027025</v>
       </c>
       <c r="T38" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="U38" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V38" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W38" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X38">
-        <v>0.745</v>
+        <v>1.35</v>
       </c>
       <c r="Y38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1">
-        <v>677</v>
+        <v>446</v>
       </c>
       <c r="B39">
-        <v>2964515</v>
+        <v>2967217</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -3897,75 +4002,75 @@
         <v>44601</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G39">
-        <v>10.93748188018799</v>
+        <v>10.99099445343018</v>
       </c>
       <c r="H39">
-        <v>-74.790283203125</v>
+        <v>-74.78353118896484</v>
       </c>
       <c r="I39" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J39">
-        <v>7002431717</v>
+        <v>7002432284</v>
       </c>
       <c r="K39">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="L39">
         <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N39" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O39" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S39">
-        <v>3218445807</v>
+        <v>3173499042</v>
       </c>
       <c r="T39" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="U39" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V39" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W39" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X39">
-        <v>1.432</v>
+        <v>0.104</v>
       </c>
       <c r="Y39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1">
-        <v>5</v>
+        <v>445</v>
       </c>
       <c r="B40">
-        <v>2949958</v>
+        <v>2967178</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -3974,75 +4079,75 @@
         <v>44601</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G40">
-        <v>10.93268775939941</v>
+        <v>10.99099445343018</v>
       </c>
       <c r="H40">
-        <v>-74.78943634033203</v>
+        <v>-74.78353118896484</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="J40">
-        <v>7002432159</v>
+        <v>7002432247</v>
       </c>
       <c r="K40">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="L40">
         <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N40" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S40">
-        <v>3046167841</v>
+        <v>3173499042</v>
       </c>
       <c r="T40" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="U40" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V40" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W40" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X40">
-        <v>0.23</v>
+        <v>0.271</v>
       </c>
       <c r="Y40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1">
-        <v>683</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>2967198</v>
+        <v>2963687</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -4051,75 +4156,75 @@
         <v>44601</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G41">
-        <v>10.93458271026611</v>
+        <v>10.97611999511719</v>
       </c>
       <c r="H41">
-        <v>-74.80440521240234</v>
+        <v>-74.78810119628906</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J41">
-        <v>7002432096</v>
+        <v>7002432328</v>
       </c>
       <c r="K41">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L41">
         <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N41" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O41" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S41">
-        <v>3003006831</v>
+        <v>3003426887</v>
       </c>
       <c r="T41" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="U41" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V41" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W41" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X41">
-        <v>0.249</v>
+        <v>0.15</v>
       </c>
       <c r="Y41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B42">
-        <v>2966917</v>
+        <v>2964709</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -4128,75 +4233,75 @@
         <v>44601</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G42">
-        <v>10.95276832580566</v>
+        <v>11.01517295837402</v>
       </c>
       <c r="H42">
-        <v>-74.78013610839844</v>
+        <v>-74.80654144287109</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="J42">
-        <v>7002431933</v>
+        <v>7002431843</v>
       </c>
       <c r="K42">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="L42">
         <v>72</v>
       </c>
       <c r="M42" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N42" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O42" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S42">
-        <v>3005400720</v>
+        <v>3014320392</v>
       </c>
       <c r="T42" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="U42" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V42" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W42" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X42">
-        <v>0.07000000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="Y42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1">
-        <v>452</v>
+        <v>993</v>
       </c>
       <c r="B43">
-        <v>2967561</v>
+        <v>2962313</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -4205,75 +4310,75 @@
         <v>44601</v>
       </c>
       <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43">
+        <v>10.91673946380615</v>
+      </c>
+      <c r="H43">
+        <v>-74.76981353759766</v>
+      </c>
+      <c r="I43" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43">
+        <v>7002432301</v>
+      </c>
+      <c r="K43">
         <v>57</v>
       </c>
-      <c r="F43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <v>10.98325061798096</v>
-      </c>
-      <c r="H43">
-        <v>-74.80337524414062</v>
-      </c>
-      <c r="I43" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43">
-        <v>7002432467</v>
-      </c>
-      <c r="K43">
-        <v>16</v>
-      </c>
       <c r="L43">
         <v>72</v>
       </c>
       <c r="M43" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N43" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S43">
-        <v>3006385909</v>
+        <v>3005787315</v>
       </c>
       <c r="T43" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="U43" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V43" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W43" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X43">
-        <v>0.992</v>
+        <v>1.717</v>
       </c>
       <c r="Y43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1">
-        <v>416</v>
+        <v>686</v>
       </c>
       <c r="B44">
-        <v>2964478</v>
+        <v>2967367</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -4282,64 +4387,64 @@
         <v>44601</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G44">
-        <v>10.97966480255127</v>
+        <v>10.95015811920166</v>
       </c>
       <c r="H44">
-        <v>-74.80977630615234</v>
+        <v>-74.85592651367188</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="J44">
-        <v>7002431953</v>
+        <v>7002432299</v>
       </c>
       <c r="K44">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L44">
         <v>72</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N44" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O44" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S44">
-        <v>3014792931</v>
+        <v>3017082213</v>
       </c>
       <c r="T44" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="U44" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V44" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W44" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X44">
-        <v>1.921</v>
+        <v>0.122</v>
       </c>
       <c r="Y44">
         <v>4</v>
@@ -4347,10 +4452,10 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1">
-        <v>1002</v>
+        <v>684</v>
       </c>
       <c r="B45">
-        <v>2967193</v>
+        <v>2967337</v>
       </c>
       <c r="C45">
         <v>2022</v>
@@ -4362,63 +4467,756 @@
         <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G45">
+        <v>10.95015811920166</v>
+      </c>
+      <c r="H45">
+        <v>-74.85592651367188</v>
+      </c>
+      <c r="I45" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45">
+        <v>7002432292</v>
+      </c>
+      <c r="K45">
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <v>72</v>
+      </c>
+      <c r="M45" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O45" t="s">
+        <v>166</v>
+      </c>
+      <c r="P45" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>172</v>
+      </c>
+      <c r="S45">
+        <v>3212323133</v>
+      </c>
+      <c r="T45" t="s">
+        <v>215</v>
+      </c>
+      <c r="U45" t="s">
+        <v>225</v>
+      </c>
+      <c r="V45" t="s">
+        <v>226</v>
+      </c>
+      <c r="W45" t="s">
+        <v>227</v>
+      </c>
+      <c r="X45">
+        <v>1.09</v>
+      </c>
+      <c r="Y45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B46">
+        <v>2966982</v>
+      </c>
+      <c r="C46">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46">
+        <v>10.97778129577637</v>
+      </c>
+      <c r="H46">
+        <v>-74.842529296875</v>
+      </c>
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46">
+        <v>7002431943</v>
+      </c>
+      <c r="K46">
+        <v>18</v>
+      </c>
+      <c r="L46">
+        <v>72</v>
+      </c>
+      <c r="M46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" t="s">
+        <v>166</v>
+      </c>
+      <c r="P46" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>172</v>
+      </c>
+      <c r="S46">
+        <v>3143011484</v>
+      </c>
+      <c r="T46" t="s">
+        <v>216</v>
+      </c>
+      <c r="U46" t="s">
+        <v>225</v>
+      </c>
+      <c r="V46" t="s">
+        <v>226</v>
+      </c>
+      <c r="W46" t="s">
+        <v>227</v>
+      </c>
+      <c r="X46">
+        <v>2.441</v>
+      </c>
+      <c r="Y46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2949112</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47">
+        <v>10.98295974731445</v>
+      </c>
+      <c r="H47">
+        <v>-74.83267211914062</v>
+      </c>
+      <c r="I47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47">
+        <v>7002431772</v>
+      </c>
+      <c r="K47">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>72</v>
+      </c>
+      <c r="M47" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" t="s">
+        <v>166</v>
+      </c>
+      <c r="P47" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>173</v>
+      </c>
+      <c r="S47">
+        <v>3109803456</v>
+      </c>
+      <c r="T47" t="s">
+        <v>217</v>
+      </c>
+      <c r="U47" t="s">
+        <v>225</v>
+      </c>
+      <c r="V47" t="s">
+        <v>226</v>
+      </c>
+      <c r="W47" t="s">
+        <v>227</v>
+      </c>
+      <c r="X47">
+        <v>0.745</v>
+      </c>
+      <c r="Y47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B48">
+        <v>2967193</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48">
         <v>10.97892475128174</v>
       </c>
-      <c r="H45">
+      <c r="H48">
         <v>-74.81726837158203</v>
       </c>
-      <c r="I45" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45">
+      <c r="I48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48">
         <v>7002432139</v>
       </c>
-      <c r="K45">
+      <c r="K48">
         <v>23</v>
       </c>
-      <c r="L45">
-        <v>72</v>
-      </c>
-      <c r="M45" t="s">
-        <v>139</v>
-      </c>
-      <c r="N45" t="s">
-        <v>140</v>
-      </c>
-      <c r="O45" t="s">
-        <v>141</v>
-      </c>
-      <c r="P45" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>146</v>
-      </c>
-      <c r="S45">
+      <c r="L48">
+        <v>72</v>
+      </c>
+      <c r="M48" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48" t="s">
+        <v>165</v>
+      </c>
+      <c r="O48" t="s">
+        <v>166</v>
+      </c>
+      <c r="P48" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>172</v>
+      </c>
+      <c r="S48">
         <v>3162784249</v>
       </c>
-      <c r="T45" t="s">
-        <v>189</v>
-      </c>
-      <c r="U45" t="s">
-        <v>190</v>
-      </c>
-      <c r="V45" t="s">
-        <v>191</v>
-      </c>
-      <c r="W45" t="s">
-        <v>192</v>
-      </c>
-      <c r="X45">
+      <c r="T48" t="s">
+        <v>218</v>
+      </c>
+      <c r="U48" t="s">
+        <v>225</v>
+      </c>
+      <c r="V48" t="s">
+        <v>226</v>
+      </c>
+      <c r="W48" t="s">
+        <v>227</v>
+      </c>
+      <c r="X48">
         <v>0.798</v>
       </c>
-      <c r="Y45">
+      <c r="Y48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="1">
+        <v>416</v>
+      </c>
+      <c r="B49">
+        <v>2964478</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49">
+        <v>10.97966480255127</v>
+      </c>
+      <c r="H49">
+        <v>-74.80977630615234</v>
+      </c>
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49">
+        <v>7002431953</v>
+      </c>
+      <c r="K49">
+        <v>23</v>
+      </c>
+      <c r="L49">
+        <v>72</v>
+      </c>
+      <c r="M49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49" t="s">
+        <v>166</v>
+      </c>
+      <c r="P49" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>172</v>
+      </c>
+      <c r="S49">
+        <v>3014792931</v>
+      </c>
+      <c r="T49" t="s">
+        <v>219</v>
+      </c>
+      <c r="U49" t="s">
+        <v>225</v>
+      </c>
+      <c r="V49" t="s">
+        <v>226</v>
+      </c>
+      <c r="W49" t="s">
+        <v>227</v>
+      </c>
+      <c r="X49">
+        <v>1.921</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="1">
+        <v>452</v>
+      </c>
+      <c r="B50">
+        <v>2967561</v>
+      </c>
+      <c r="C50">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50">
+        <v>10.98325061798096</v>
+      </c>
+      <c r="H50">
+        <v>-74.80337524414062</v>
+      </c>
+      <c r="I50" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50">
+        <v>7002432467</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>72</v>
+      </c>
+      <c r="M50" t="s">
+        <v>163</v>
+      </c>
+      <c r="N50" t="s">
+        <v>165</v>
+      </c>
+      <c r="O50" t="s">
+        <v>166</v>
+      </c>
+      <c r="P50" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>172</v>
+      </c>
+      <c r="S50">
+        <v>3006385909</v>
+      </c>
+      <c r="T50" t="s">
+        <v>220</v>
+      </c>
+      <c r="U50" t="s">
+        <v>225</v>
+      </c>
+      <c r="V50" t="s">
+        <v>226</v>
+      </c>
+      <c r="W50" t="s">
+        <v>227</v>
+      </c>
+      <c r="X50">
+        <v>0.992</v>
+      </c>
+      <c r="Y50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2967291</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51">
+        <v>10.98511409759521</v>
+      </c>
+      <c r="H51">
+        <v>-74.78804779052734</v>
+      </c>
+      <c r="I51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51">
+        <v>7002432248</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>72</v>
+      </c>
+      <c r="M51" t="s">
+        <v>163</v>
+      </c>
+      <c r="N51" t="s">
+        <v>165</v>
+      </c>
+      <c r="O51" t="s">
+        <v>166</v>
+      </c>
+      <c r="P51" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>172</v>
+      </c>
+      <c r="S51">
+        <v>3016070254</v>
+      </c>
+      <c r="T51" t="s">
+        <v>221</v>
+      </c>
+      <c r="U51" t="s">
+        <v>225</v>
+      </c>
+      <c r="V51" t="s">
+        <v>226</v>
+      </c>
+      <c r="W51" t="s">
+        <v>227</v>
+      </c>
+      <c r="X51">
+        <v>1.277</v>
+      </c>
+      <c r="Y51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="1">
+        <v>986</v>
+      </c>
+      <c r="B52">
+        <v>2956413</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52">
+        <v>11.00696754455566</v>
+      </c>
+      <c r="H52">
+        <v>-74.82685852050781</v>
+      </c>
+      <c r="I52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52">
+        <v>7002431714</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>72</v>
+      </c>
+      <c r="M52" t="s">
+        <v>163</v>
+      </c>
+      <c r="N52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O52" t="s">
+        <v>166</v>
+      </c>
+      <c r="P52" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>172</v>
+      </c>
+      <c r="S52">
+        <v>3126039779</v>
+      </c>
+      <c r="T52" t="s">
+        <v>222</v>
+      </c>
+      <c r="U52" t="s">
+        <v>225</v>
+      </c>
+      <c r="V52" t="s">
+        <v>226</v>
+      </c>
+      <c r="W52" t="s">
+        <v>227</v>
+      </c>
+      <c r="X52">
+        <v>0.865</v>
+      </c>
+      <c r="Y52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="1">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>2964052</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53">
+        <v>11.00191307067871</v>
+      </c>
+      <c r="H53">
+        <v>-74.83025360107422</v>
+      </c>
+      <c r="I53" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53">
+        <v>7002432412</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>72</v>
+      </c>
+      <c r="M53" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" t="s">
+        <v>165</v>
+      </c>
+      <c r="O53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P53" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>173</v>
+      </c>
+      <c r="S53">
+        <v>3002414841</v>
+      </c>
+      <c r="T53" t="s">
+        <v>223</v>
+      </c>
+      <c r="U53" t="s">
+        <v>225</v>
+      </c>
+      <c r="V53" t="s">
+        <v>226</v>
+      </c>
+      <c r="W53" t="s">
+        <v>227</v>
+      </c>
+      <c r="X53">
+        <v>0.179</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="1">
+        <v>399</v>
+      </c>
+      <c r="B54">
+        <v>2962393</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54">
+        <v>11.00191307067871</v>
+      </c>
+      <c r="H54">
+        <v>-74.83025360107422</v>
+      </c>
+      <c r="I54" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54">
+        <v>7002431656</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>72</v>
+      </c>
+      <c r="M54" t="s">
+        <v>163</v>
+      </c>
+      <c r="N54" t="s">
+        <v>165</v>
+      </c>
+      <c r="O54" t="s">
+        <v>166</v>
+      </c>
+      <c r="P54" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>173</v>
+      </c>
+      <c r="S54">
+        <v>3015339254</v>
+      </c>
+      <c r="T54" t="s">
+        <v>224</v>
+      </c>
+      <c r="U54" t="s">
+        <v>225</v>
+      </c>
+      <c r="V54" t="s">
+        <v>226</v>
+      </c>
+      <c r="W54" t="s">
+        <v>227</v>
+      </c>
+      <c r="X54">
+        <v>1.442</v>
+      </c>
+      <c r="Y54">
         <v>4</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
   <si>
     <t>REM</t>
   </si>
@@ -88,18 +88,81 @@
     <t>CAMION</t>
   </si>
   <si>
+    <t>LA PRADERA</t>
+  </si>
+  <si>
+    <t>COLINA CAMPESTRE</t>
+  </si>
+  <si>
+    <t>ALAMEDA DEL RIO</t>
+  </si>
+  <si>
+    <t>EL TABOR</t>
+  </si>
+  <si>
+    <t>LA CUMBRE</t>
+  </si>
+  <si>
+    <t>BELLO HORIZONTE</t>
+  </si>
+  <si>
+    <t>CIUDAD JARDIN</t>
+  </si>
+  <si>
+    <t>EL SILENCIO</t>
+  </si>
+  <si>
+    <t>ALTOS DEL PRADO</t>
+  </si>
+  <si>
+    <t>CHIQUINQUIRA</t>
+  </si>
+  <si>
     <t>CONIDEC</t>
   </si>
   <si>
     <t>GALAN</t>
   </si>
   <si>
+    <t>VILLA SEVERA</t>
+  </si>
+  <si>
+    <t>LAS PALMAS</t>
+  </si>
+  <si>
+    <t>LA VICTORIA</t>
+  </si>
+  <si>
+    <t>EL CARMEN</t>
+  </si>
+  <si>
+    <t>PUMAREJO</t>
+  </si>
+  <si>
+    <t>LOS ANDES</t>
+  </si>
+  <si>
+    <t>SAN FELIPE</t>
+  </si>
+  <si>
+    <t>OLAYA</t>
+  </si>
+  <si>
+    <t>EL RECREO</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>ABAJO</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
     <t>NIEVES</t>
   </si>
   <si>
-    <t>ALAMEDA DEL RIO</t>
-  </si>
-  <si>
     <t>SEC. MIRAMAR</t>
   </si>
   <si>
@@ -109,115 +172,67 @@
     <t>BUENA VISTA</t>
   </si>
   <si>
+    <t>PARAISO</t>
+  </si>
+  <si>
     <t>COUN.CLUB VILLA</t>
   </si>
   <si>
     <t>ADELITA DE CHAR</t>
   </si>
   <si>
-    <t>LOS ALMENDROS</t>
-  </si>
-  <si>
-    <t>LOS ROBLES</t>
-  </si>
-  <si>
-    <t>VILLA LAS MORAS</t>
-  </si>
-  <si>
-    <t>URB. EL MANANTIAL</t>
-  </si>
-  <si>
-    <t>C.METROPOLITANA</t>
-  </si>
-  <si>
-    <t>URB NUEVA ESPERANZA</t>
-  </si>
-  <si>
-    <t>COSTA HERMOSA</t>
-  </si>
-  <si>
-    <t>LAS PALMAS</t>
-  </si>
-  <si>
-    <t>LA VICTORIA</t>
-  </si>
-  <si>
-    <t>EL CARMEN</t>
-  </si>
-  <si>
-    <t>PUMAREJO</t>
-  </si>
-  <si>
-    <t>LOS ANDES</t>
-  </si>
-  <si>
-    <t>SAN FELIPE</t>
+    <t>CARIBE VERDE</t>
   </si>
   <si>
     <t>LIPAYA</t>
   </si>
   <si>
-    <t>VILLA SEVERA</t>
-  </si>
-  <si>
-    <t>CIUDAD JARDIN</t>
-  </si>
-  <si>
-    <t>BELLO HORIZONTE</t>
-  </si>
-  <si>
-    <t>LA CUMBRE</t>
-  </si>
-  <si>
-    <t>ALTOS DEL PRADO</t>
-  </si>
-  <si>
     <t>PRADO</t>
   </si>
   <si>
     <t>BELLAVISTA</t>
   </si>
   <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>ABAJO</t>
-  </si>
-  <si>
-    <t>CHIQUINQUIRA</t>
-  </si>
-  <si>
-    <t>PARAISO</t>
-  </si>
-  <si>
-    <t>CARNERO</t>
-  </si>
-  <si>
-    <t>CARIBE VERDE</t>
-  </si>
-  <si>
-    <t>LA PRADERA</t>
-  </si>
-  <si>
-    <t>COLINA CAMPESTRE</t>
-  </si>
-  <si>
-    <t>EL SILENCIO</t>
-  </si>
-  <si>
-    <t>OLAYA</t>
-  </si>
-  <si>
-    <t>EL RECREO</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
     <t>EL POBLADO</t>
   </si>
   <si>
-    <t>EL TABOR</t>
+    <t xml:space="preserve">CR  37  115  75 </t>
+  </si>
+  <si>
+    <t>CR  57  133  170  CS  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  116  42C  80 APTO 1106 TR E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  116  42 C  80  AP  206  BL  B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  99AMIRAMAR  42F  211  BL  3  AP  301 </t>
+  </si>
+  <si>
+    <t>CL  96  42c  29  BL  2  AP  204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  90  42B1  51  PI  2  AP  2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  42F  84B  50  CS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  79B  42F  158  AP  304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  42E  80  139 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  26B  73C  71  PI  1  AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  50  76  19  LC  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  42  29  41 </t>
   </si>
   <si>
     <t xml:space="preserve">CL  48B  3ASUR  04 </t>
@@ -226,15 +241,48 @@
     <t xml:space="preserve">CR  3A  36  27  </t>
   </si>
   <si>
+    <t xml:space="preserve">CR  48  54D  41  CASA  CS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  35  7F  23  AP  1 </t>
+  </si>
+  <si>
+    <t>CR  10B  45C2  28  CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  47C  21  38  AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  48  19E  20 APTO 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  61  20B  25 </t>
+  </si>
+  <si>
+    <t>CL  57  21B  146  BL  3  AP  603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  24B  72  97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  68B  29   60  AP  1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  41  52  24  AP  301B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  41  38  67  PI  5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  40  50  61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  58  66  32 </t>
+  </si>
+  <si>
     <t xml:space="preserve">CL  21  23  22  AP  1  PI  1 </t>
   </si>
   <si>
-    <t xml:space="preserve">CL  116  42C  80 APTO 1106 TR E </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  116  42 C  80  AP  206  BL  B </t>
-  </si>
-  <si>
     <t xml:space="preserve">TR  44  102  72  BL  2  AP  514 </t>
   </si>
   <si>
@@ -250,130 +298,61 @@
     <t>CL  104  51B  154  CS  53</t>
   </si>
   <si>
+    <t xml:space="preserve">CR  74  82  82  AP  406 </t>
+  </si>
+  <si>
     <t>TR  3B  22  246  BL  1  AP  504</t>
   </si>
   <si>
     <t>CL  20A  17  45  PI  1  AP</t>
   </si>
   <si>
-    <t xml:space="preserve">CR  12BSCALMENDROSCAMPESTRE  78C  59 </t>
-  </si>
-  <si>
-    <t>CR  13  77B  30  PI  2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA  1C  66  02      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  10A  74A  16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  13  68  11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  54B  6F  16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA  77  56  39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  44  30  103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  35  7F  23  AP  1 </t>
-  </si>
-  <si>
-    <t>CR  10B  45C2  28  CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  47C  21  38  AP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  48  19E  20 APTO 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  61  20B  25 </t>
-  </si>
-  <si>
-    <t>CL  57  21B  146  BL  3  AP  603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  24B  72  97 </t>
+    <t>CR  9G  136  132  BL  10  AP  104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  9G  DIAGONAL 136  132 TORRE 10 APTO.104 </t>
   </si>
   <si>
     <t xml:space="preserve">CL  70C  9J1  25 </t>
   </si>
   <si>
-    <t xml:space="preserve">CR  48  54D  41  CASA  CS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  79B  42F  158  AP  304 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  42E  80  139 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  42F  84B  50  CS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  90  42B1  51  PI  2  AP  2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  50  76  19  LC  16 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CR  55  82  227  AP  1403  PI  14 </t>
   </si>
   <si>
     <t xml:space="preserve">CR  63  64  03  AP  4C </t>
   </si>
   <si>
-    <t xml:space="preserve">CL  58  66  32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  40  50  61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  42  29  41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  74  82  82  AP  406 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  26  17D  23  AP  503  TO  6 </t>
-  </si>
-  <si>
-    <t>CR  9G  136  132  BL  10  AP  104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  9G  DIAGONAL 136  132 TORRE 10 APTO.104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  37  115  75 </t>
-  </si>
-  <si>
-    <t>CR  57  133  170  CS  10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  26B  73C  71  PI  1  AP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  68B  29   60  AP  1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  41  52  24  AP  301B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  41  38  67  PI  5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CL  91  46  80  AP  204  </t>
   </si>
   <si>
-    <t xml:space="preserve">CL  99AMIRAMAR  42F  211  BL  3  AP  301 </t>
-  </si>
-  <si>
-    <t>CL  96  42c  29  BL  2  AP  204</t>
+    <t>BAQ - LA PRADERA</t>
+  </si>
+  <si>
+    <t>BAQ - COLINA CAMPESTRE</t>
+  </si>
+  <si>
+    <t>BAQ - ALAMEDA DEL RIO</t>
+  </si>
+  <si>
+    <t>BAQ - EL TABOR</t>
+  </si>
+  <si>
+    <t>BAQ - LA CUMBRE</t>
+  </si>
+  <si>
+    <t>BAQ - BELLO HORIZONTE</t>
+  </si>
+  <si>
+    <t>BAQ - CIUDAD JARDIN</t>
+  </si>
+  <si>
+    <t>BAQ - EL SILENCIO</t>
+  </si>
+  <si>
+    <t>BAQ - ALTOS DEL PRADO</t>
+  </si>
+  <si>
+    <t>BAQ - CHIQUINQUIRA</t>
   </si>
   <si>
     <t>BAQ - CONIDEC</t>
@@ -382,142 +361,91 @@
     <t>BAQ - GALAN</t>
   </si>
   <si>
+    <t>SOL - VILLA CEVERA</t>
+  </si>
+  <si>
+    <t>BAQ - LAS PALMAS</t>
+  </si>
+  <si>
+    <t>BAQ - LA VICTORIA</t>
+  </si>
+  <si>
+    <t>BAQ - EL CARMEN</t>
+  </si>
+  <si>
+    <t>BAQ - PUMAREJO</t>
+  </si>
+  <si>
+    <t>BAQ - LOS ANDES</t>
+  </si>
+  <si>
+    <t>BAQ - SAN FELIPE</t>
+  </si>
+  <si>
+    <t>BAQ - OLAYA</t>
+  </si>
+  <si>
+    <t>BAQ - EL RECREO</t>
+  </si>
+  <si>
+    <t>BAQ - ROSARIO</t>
+  </si>
+  <si>
+    <t>BAQ - ABAJO</t>
+  </si>
+  <si>
+    <t>BAQ - MODELO</t>
+  </si>
+  <si>
     <t>BAQ - NIEVES</t>
   </si>
   <si>
-    <t>BAQ - ALAMEDA DEL RIO</t>
-  </si>
-  <si>
     <t>BAQ - SECTOR MIRAMAR</t>
   </si>
   <si>
     <t>BAQ - BUENA VISTA</t>
   </si>
   <si>
+    <t>BAQ - PARAISO</t>
+  </si>
+  <si>
     <t>BAQ - COUN.CLUB VILLA</t>
   </si>
   <si>
     <t>BAQ - ADELITA DE CHAR</t>
   </si>
   <si>
-    <t>SOL - LOS ALMENDROS</t>
-  </si>
-  <si>
-    <t>SOL - LOS ROBLES</t>
-  </si>
-  <si>
-    <t>SOL - VILLA LAS MORAS</t>
-  </si>
-  <si>
-    <t>SOL - URB. EL MANANTIAL</t>
-  </si>
-  <si>
-    <t>SOL - C.METROPOLITANA</t>
-  </si>
-  <si>
-    <t>SOL - LA ESPERANZA</t>
-  </si>
-  <si>
-    <t>SOL - COSTA HERMOSA</t>
-  </si>
-  <si>
-    <t>BAQ - LAS PALMAS</t>
-  </si>
-  <si>
-    <t>BAQ - LA VICTORIA</t>
-  </si>
-  <si>
-    <t>BAQ - EL CARMEN</t>
-  </si>
-  <si>
-    <t>BAQ - PUMAREJO</t>
-  </si>
-  <si>
-    <t>BAQ - LOS ANDES</t>
-  </si>
-  <si>
-    <t>BAQ - SAN FELIPE</t>
+    <t>BAQ - CIUDAD CARIBE</t>
   </si>
   <si>
     <t>BAQ - LIPAYA</t>
   </si>
   <si>
-    <t>SOL - VILLA CEVERA</t>
-  </si>
-  <si>
-    <t>BAQ - CIUDAD JARDIN</t>
-  </si>
-  <si>
-    <t>BAQ - BELLO HORIZONTE</t>
-  </si>
-  <si>
-    <t>BAQ - LA CUMBRE</t>
-  </si>
-  <si>
-    <t>BAQ - ALTOS DEL PRADO</t>
-  </si>
-  <si>
     <t>BAQ - PRADO</t>
   </si>
   <si>
     <t>BAQ - BELLAVISTA</t>
   </si>
   <si>
-    <t>BAQ - MODELO</t>
-  </si>
-  <si>
-    <t>BAQ - ABAJO</t>
-  </si>
-  <si>
-    <t>BAQ - CHIQUINQUIRA</t>
-  </si>
-  <si>
-    <t>BAQ - PARAISO</t>
-  </si>
-  <si>
-    <t>SOL - CARNERO</t>
-  </si>
-  <si>
-    <t>BAQ - CIUDAD CARIBE</t>
-  </si>
-  <si>
-    <t>BAQ - LA PRADERA</t>
-  </si>
-  <si>
-    <t>BAQ - COLINA CAMPESTRE</t>
-  </si>
-  <si>
-    <t>BAQ - EL SILENCIO</t>
-  </si>
-  <si>
-    <t>BAQ - OLAYA</t>
-  </si>
-  <si>
-    <t>BAQ - EL RECREO</t>
-  </si>
-  <si>
-    <t>BAQ - ROSARIO</t>
-  </si>
-  <si>
     <t>BAQ - EL POBLADO</t>
   </si>
   <si>
-    <t>BAQ - EL TABOR</t>
+    <t>MEDIA</t>
   </si>
   <si>
     <t>BAJA</t>
   </si>
   <si>
-    <t>MEDIA</t>
-  </si>
-  <si>
     <t>ATLANTICO</t>
   </si>
   <si>
     <t>BARRANQUILLA</t>
   </si>
   <si>
-    <t>SOLEDAD</t>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>B5</t>
@@ -526,33 +454,99 @@
     <t>95</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
     <t>No Definido</t>
   </si>
   <si>
     <t>COMPLETA</t>
   </si>
   <si>
+    <t>3143011484-3012987708</t>
+  </si>
+  <si>
+    <t>3107316036-3166170391-3205687284</t>
+  </si>
+  <si>
+    <t>3013983821-3172760919-3661298</t>
+  </si>
+  <si>
+    <t>3184001236-3152930513</t>
+  </si>
+  <si>
+    <t>3178267-3002414841</t>
+  </si>
+  <si>
+    <t>3015339254-8782519-3043778445</t>
+  </si>
+  <si>
+    <t>3004005951-3862884</t>
+  </si>
+  <si>
+    <t>3473909-3015910076-3797105</t>
+  </si>
+  <si>
+    <t>3125001644-3226489596-3127483289</t>
+  </si>
+  <si>
+    <t>3138693507-3223943335</t>
+  </si>
+  <si>
+    <t>3162784249-3654164-3157236115</t>
+  </si>
+  <si>
+    <t>3776250-3008155651-3017547793</t>
+  </si>
+  <si>
+    <t>3705889-3103798735-3003426885</t>
+  </si>
+  <si>
     <t>3008303232-3003006831</t>
   </si>
   <si>
     <t>3265427-3218445807-3008577035</t>
   </si>
   <si>
+    <t>3046167841-3641780</t>
+  </si>
+  <si>
+    <t>3015570764-3243458422</t>
+  </si>
+  <si>
+    <t>3122067524-3012088756</t>
+  </si>
+  <si>
+    <t>3215434845-3217101794-3017514173</t>
+  </si>
+  <si>
+    <t>3116354060-3127426485-3127416485</t>
+  </si>
+  <si>
+    <t>3117234835-3218131444</t>
+  </si>
+  <si>
+    <t>3163616125-3152298227-3006092270</t>
+  </si>
+  <si>
+    <t>3012500579-3663307-3003214986</t>
+  </si>
+  <si>
+    <t>3014792931</t>
+  </si>
+  <si>
+    <t>573006385909-3002653019-3006385909</t>
+  </si>
+  <si>
+    <t>3016070254-3790443-3042427577</t>
+  </si>
+  <si>
+    <t>3162582460-3173499042</t>
+  </si>
+  <si>
+    <t>3017843874-3143027025</t>
+  </si>
+  <si>
     <t>3023306410-3003446698-3005400720</t>
   </si>
   <si>
-    <t>3013983821-3172760919-3661298</t>
-  </si>
-  <si>
-    <t>3184001236-3152930513</t>
-  </si>
-  <si>
     <t>3042113374-3016254865-3012997612</t>
   </si>
   <si>
@@ -568,127 +562,28 @@
     <t>3008151499</t>
   </si>
   <si>
+    <t>3014320392-3015380051</t>
+  </si>
+  <si>
     <t>3014631170-3003109946</t>
   </si>
   <si>
     <t>3044140570-3006619610</t>
   </si>
   <si>
-    <t>3008833472-3244532327-3008433601</t>
-  </si>
-  <si>
-    <t>3004892464-3052757873</t>
-  </si>
-  <si>
-    <t>3002867575-3015583147</t>
-  </si>
-  <si>
-    <t>3017736847-3242140609</t>
-  </si>
-  <si>
-    <t>3135215513-3003266674-3004771007</t>
-  </si>
-  <si>
-    <t>3053232293</t>
-  </si>
-  <si>
-    <t>3114247132-3268744-3007132598</t>
-  </si>
-  <si>
-    <t>3742573-3137446109-3054433358</t>
-  </si>
-  <si>
-    <t>3015570764-3243458422</t>
-  </si>
-  <si>
-    <t>3122067524-3012088756</t>
-  </si>
-  <si>
-    <t>3215434845-3217101794-3017514173</t>
-  </si>
-  <si>
-    <t>3116354060-3127426485-3127416485</t>
-  </si>
-  <si>
-    <t>3117234835-3218131444</t>
-  </si>
-  <si>
-    <t>3163616125-3152298227-3006092270</t>
-  </si>
-  <si>
-    <t>3012500579-3663307-3003214986</t>
+    <t>3017082213-3212323133-3152392498</t>
   </si>
   <si>
     <t>3146839506</t>
   </si>
   <si>
-    <t>3046167841-3641780</t>
-  </si>
-  <si>
-    <t>3125001644-3226489596-3127483289</t>
-  </si>
-  <si>
-    <t>3138693507-3223943335</t>
-  </si>
-  <si>
-    <t>3473909-3015910076-3797105</t>
-  </si>
-  <si>
-    <t>3004005951-3862884</t>
-  </si>
-  <si>
-    <t>3776250-3008155651-3017547793</t>
-  </si>
-  <si>
     <t>3157066242-3135714133-4228855</t>
   </si>
   <si>
     <t>3736153-3005364400-3072544</t>
   </si>
   <si>
-    <t>3017843874-3143027025</t>
-  </si>
-  <si>
-    <t>3162582460-3173499042</t>
-  </si>
-  <si>
-    <t>3705889-3103798735-3003426885</t>
-  </si>
-  <si>
-    <t>3014320392-3015380051</t>
-  </si>
-  <si>
-    <t>3157158755-3162879041-3005787315</t>
-  </si>
-  <si>
-    <t>3017082213-3212323133-3152392498</t>
-  </si>
-  <si>
-    <t>3143011484-3012987708</t>
-  </si>
-  <si>
-    <t>3107316036-3166170391-3205687284</t>
-  </si>
-  <si>
-    <t>3162784249-3654164-3157236115</t>
-  </si>
-  <si>
-    <t>3014792931</t>
-  </si>
-  <si>
-    <t>573006385909-3002653019-3006385909</t>
-  </si>
-  <si>
-    <t>3016070254-3790443-3042427577</t>
-  </si>
-  <si>
     <t>3126039779-7271603-3114010997</t>
-  </si>
-  <si>
-    <t>3178267-3002414841</t>
-  </si>
-  <si>
-    <t>3015339254-8782519-3043778445</t>
   </si>
   <si>
     <t>JA</t>
@@ -705,7 +600,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1059,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,10 +1036,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
-        <v>683</v>
+        <v>1000</v>
       </c>
       <c r="B2">
-        <v>2967198</v>
+        <v>2966982</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1156,61 +1051,61 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>10.93458271026611</v>
+        <v>10.97778129577637</v>
       </c>
       <c r="H2">
-        <v>-74.80440521240234</v>
+        <v>-74.842529296875</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="J2">
-        <v>7002432096</v>
+        <v>7002431943</v>
       </c>
       <c r="K2">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S2">
-        <v>3003006831</v>
+        <v>3143011484</v>
       </c>
       <c r="T2" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="U2" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W2" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X2">
-        <v>0.249</v>
+        <v>2.441</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1218,10 +1113,10 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>677</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2964515</v>
+        <v>2949112</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1233,61 +1128,61 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>10.93748188018799</v>
+        <v>10.98295974731445</v>
       </c>
       <c r="H3">
-        <v>-74.790283203125</v>
+        <v>-74.83267211914062</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>7002431717</v>
+        <v>7002431772</v>
       </c>
       <c r="K3">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S3">
-        <v>3218445807</v>
+        <v>3109803456</v>
       </c>
       <c r="T3" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="U3" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V3" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W3" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X3">
-        <v>1.432</v>
+        <v>0.745</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1295,10 +1190,10 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1">
-        <v>438</v>
+        <v>682</v>
       </c>
       <c r="B4">
-        <v>2966917</v>
+        <v>2967157</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1310,61 +1205,61 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G4">
-        <v>10.95276832580566</v>
+        <v>10.99570846557617</v>
       </c>
       <c r="H4">
-        <v>-74.78013610839844</v>
+        <v>-74.84067535400391</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J4">
-        <v>7002431933</v>
+        <v>7002432066</v>
       </c>
       <c r="K4">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S4">
-        <v>3005400720</v>
+        <v>3172760918</v>
       </c>
       <c r="T4" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="U4" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V4" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W4" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X4">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1372,10 +1267,10 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1">
-        <v>682</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>2967157</v>
+        <v>2965141</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1384,10 +1279,10 @@
         <v>44601</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>10.99570846557617</v>
@@ -1396,10 +1291,10 @@
         <v>-74.84067535400391</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J5">
-        <v>7002432066</v>
+        <v>7002432132</v>
       </c>
       <c r="K5">
         <v>18</v>
@@ -1408,40 +1303,40 @@
         <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N5" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S5">
-        <v>3172760918</v>
+        <v>3184001236</v>
       </c>
       <c r="T5" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="U5" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V5" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W5" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X5">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1449,10 +1344,10 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>2965141</v>
+        <v>2964052</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1464,61 +1359,61 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>10.99570846557617</v>
+        <v>11.00191307067871</v>
       </c>
       <c r="H6">
-        <v>-74.84067535400391</v>
+        <v>-74.83025360107422</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J6">
-        <v>7002432132</v>
+        <v>7002432412</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O6" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S6">
-        <v>3184001236</v>
+        <v>3002414841</v>
       </c>
       <c r="T6" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="U6" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V6" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W6" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X6">
-        <v>0.3</v>
+        <v>0.179</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1526,10 +1421,10 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="B7">
-        <v>2967535</v>
+        <v>2962393</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1538,22 +1433,22 @@
         <v>44601</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>11.00435161590576</v>
+        <v>11.00191307067871</v>
       </c>
       <c r="H7">
-        <v>-74.83413696289062</v>
+        <v>-74.83025360107422</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J7">
-        <v>7002432444</v>
+        <v>7002431656</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1562,40 +1457,40 @@
         <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S7">
-        <v>3042113374</v>
+        <v>3015339254</v>
       </c>
       <c r="T7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="U7" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X7">
-        <v>0.242</v>
+        <v>1.442</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1603,10 +1498,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B8">
-        <v>2966925</v>
+        <v>2966852</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1615,22 +1510,22 @@
         <v>44601</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G8">
-        <v>11.00435161590576</v>
+        <v>10.99914264678955</v>
       </c>
       <c r="H8">
-        <v>-74.83413696289062</v>
+        <v>-74.8282470703125</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="J8">
-        <v>7002432379</v>
+        <v>7002432128</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1639,40 +1534,40 @@
         <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S8">
-        <v>3213824925</v>
+        <v>3004005951</v>
       </c>
       <c r="T8" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="U8" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V8" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W8" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X8">
-        <v>1.22</v>
+        <v>0.745</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1680,10 +1575,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B9">
-        <v>2967091</v>
+        <v>2967518</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1692,22 +1587,22 @@
         <v>44601</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>11.00435161590576</v>
+        <v>10.99525833129883</v>
       </c>
       <c r="H9">
-        <v>-74.83413696289062</v>
+        <v>-74.82118988037109</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J9">
-        <v>7002432029</v>
+        <v>7002432442</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1716,40 +1611,40 @@
         <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S9">
-        <v>3003765369</v>
+        <v>3015910076</v>
       </c>
       <c r="T9" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="U9" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V9" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W9" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X9">
-        <v>3.93</v>
+        <v>2.087</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1757,76 +1652,76 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="B10">
-        <v>2962143</v>
+        <v>2920852</v>
       </c>
       <c r="C10">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D10" s="2">
         <v>44601</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>11.00435161590576</v>
+        <v>10.99208354949951</v>
       </c>
       <c r="H10">
-        <v>-74.83413696289062</v>
+        <v>-74.82035827636719</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J10">
-        <v>7002431918</v>
+        <v>7002431727</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S10">
-        <v>3117732675</v>
+        <v>3125001644</v>
       </c>
       <c r="T10" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="U10" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V10" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W10" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X10">
-        <v>6.408</v>
+        <v>0.229</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1834,10 +1729,10 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B11">
-        <v>2967520</v>
+        <v>2966685</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1849,61 +1744,61 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G11">
-        <v>11.01446342468262</v>
+        <v>10.99208354949951</v>
       </c>
       <c r="H11">
-        <v>-74.82730865478516</v>
+        <v>-74.82035827636719</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="J11">
-        <v>7002432438</v>
+        <v>7002431729</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S11">
-        <v>3008151499</v>
+        <v>3223943335</v>
       </c>
       <c r="T11" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="U11" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V11" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W11" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X11">
-        <v>0.39</v>
+        <v>5.001</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1911,10 +1806,10 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1">
-        <v>357</v>
+        <v>1002</v>
       </c>
       <c r="B12">
-        <v>2950002</v>
+        <v>2967193</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1926,61 +1821,61 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>11.02181053161621</v>
+        <v>10.97892475128174</v>
       </c>
       <c r="H12">
-        <v>-74.87113952636719</v>
+        <v>-74.81726837158203</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J12">
-        <v>7002431600</v>
+        <v>7002432139</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="L12">
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S12">
-        <v>3014631170</v>
+        <v>3162784249</v>
       </c>
       <c r="T12" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="U12" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V12" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W12" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X12">
-        <v>0.97</v>
+        <v>0.798</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1988,10 +1883,10 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B13">
-        <v>2965985</v>
+        <v>2966739</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2003,61 +1898,61 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>11.03202056884766</v>
+        <v>11.00480079650879</v>
       </c>
       <c r="H13">
-        <v>-74.87136840820312</v>
+        <v>-74.8116455078125</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="J13">
-        <v>7002431719</v>
+        <v>7002431651</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N13" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S13">
-        <v>3006619610</v>
+        <v>3008155651</v>
       </c>
       <c r="T13" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="U13" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V13" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W13" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X13">
-        <v>0.719</v>
+        <v>0.1</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -2065,10 +1960,10 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1">
-        <v>997</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>2965871</v>
+        <v>2963687</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2080,72 +1975,72 @@
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G14">
-        <v>10.91901683807373</v>
+        <v>10.97611999511719</v>
       </c>
       <c r="H14">
-        <v>-74.81688690185547</v>
+        <v>-74.78810119628906</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="J14">
-        <v>7002432307</v>
+        <v>7002432328</v>
       </c>
       <c r="K14">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="L14">
         <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S14">
-        <v>3008833472</v>
+        <v>3003426887</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="U14" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V14" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W14" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X14">
-        <v>0.305</v>
+        <v>0.15</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>683</v>
       </c>
       <c r="B15">
-        <v>2957001</v>
+        <v>2967198</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2154,64 +2049,64 @@
         <v>44601</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G15">
-        <v>10.91901683807373</v>
+        <v>10.93458271026611</v>
       </c>
       <c r="H15">
-        <v>-74.81688690185547</v>
+        <v>-74.80440521240234</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="J15">
-        <v>7002423505</v>
+        <v>7002432096</v>
       </c>
       <c r="K15">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S15">
-        <v>3052757873</v>
+        <v>3003006831</v>
       </c>
       <c r="T15" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="U15" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V15" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W15" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X15">
-        <v>2.447</v>
+        <v>0.249</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -2219,10 +2114,10 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B16">
-        <v>2960952</v>
+        <v>2964515</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2231,64 +2126,64 @@
         <v>44601</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G16">
-        <v>10.92058753967285</v>
+        <v>10.93748188018799</v>
       </c>
       <c r="H16">
-        <v>-74.80829620361328</v>
+        <v>-74.790283203125</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="J16">
-        <v>7002431711</v>
+        <v>7002431717</v>
       </c>
       <c r="K16">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="L16">
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S16">
-        <v>3058112673</v>
+        <v>3218445807</v>
       </c>
       <c r="T16" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="U16" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V16" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W16" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X16">
-        <v>0.822</v>
+        <v>1.432</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -2296,10 +2191,10 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>667</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>2955730</v>
+        <v>2949958</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2308,64 +2203,64 @@
         <v>44601</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>10.91276359558105</v>
+        <v>10.93268775939941</v>
       </c>
       <c r="H17">
-        <v>-74.80815124511719</v>
+        <v>-74.78943634033203</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J17">
-        <v>7002420639</v>
+        <v>7002432159</v>
       </c>
       <c r="K17">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="L17">
         <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S17">
-        <v>3242140609</v>
+        <v>3046167841</v>
       </c>
       <c r="T17" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="U17" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V17" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W17" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X17">
-        <v>1.825</v>
+        <v>0.23</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -2373,10 +2268,10 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B18">
-        <v>2966706</v>
+        <v>2965168</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2385,64 +2280,64 @@
         <v>44601</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18">
-        <v>10.90456676483154</v>
+        <v>10.94451999664307</v>
       </c>
       <c r="H18">
-        <v>-74.80835723876953</v>
+        <v>-74.78980255126953</v>
       </c>
       <c r="I18" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J18">
-        <v>7002431607</v>
+        <v>7002431687</v>
       </c>
       <c r="K18">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="L18">
         <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S18">
-        <v>3003266674</v>
+        <v>3243458422</v>
       </c>
       <c r="T18" t="s">
+        <v>164</v>
+      </c>
+      <c r="U18" t="s">
         <v>190</v>
       </c>
-      <c r="U18" t="s">
-        <v>225</v>
-      </c>
       <c r="V18" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W18" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X18">
-        <v>1.33</v>
+        <v>0.745</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -2450,10 +2345,10 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>679</v>
+        <v>364</v>
       </c>
       <c r="B19">
-        <v>2965274</v>
+        <v>2954864</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2462,64 +2357,64 @@
         <v>44601</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G19">
-        <v>10.90308952331543</v>
+        <v>10.95140171051025</v>
       </c>
       <c r="H19">
-        <v>-74.79138946533203</v>
+        <v>-74.79917907714844</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J19">
-        <v>7002431793</v>
+        <v>7002431672</v>
       </c>
       <c r="K19">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O19" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S19">
-        <v>3053232293</v>
+        <v>3122067524</v>
       </c>
       <c r="T19" t="s">
+        <v>165</v>
+      </c>
+      <c r="U19" t="s">
+        <v>190</v>
+      </c>
+      <c r="V19" t="s">
         <v>191</v>
       </c>
-      <c r="U19" t="s">
-        <v>225</v>
-      </c>
-      <c r="V19" t="s">
-        <v>226</v>
-      </c>
       <c r="W19" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X19">
-        <v>1.223</v>
+        <v>1.03</v>
       </c>
       <c r="Y19">
         <v>2</v>
@@ -2527,10 +2422,10 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>1001</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>2967042</v>
+        <v>2959024</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2539,64 +2434,64 @@
         <v>44601</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20">
-        <v>10.90969753265381</v>
+        <v>10.96424674987793</v>
       </c>
       <c r="H20">
-        <v>-74.76608276367188</v>
+        <v>-74.79908752441406</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J20">
-        <v>7002432178</v>
+        <v>7002432347</v>
       </c>
       <c r="K20">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="L20">
         <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O20" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S20">
-        <v>3007132598</v>
+        <v>3017514173</v>
       </c>
       <c r="T20" t="s">
+        <v>166</v>
+      </c>
+      <c r="U20" t="s">
+        <v>190</v>
+      </c>
+      <c r="V20" t="s">
+        <v>191</v>
+      </c>
+      <c r="W20" t="s">
         <v>192</v>
       </c>
-      <c r="U20" t="s">
-        <v>225</v>
-      </c>
-      <c r="V20" t="s">
-        <v>226</v>
-      </c>
-      <c r="W20" t="s">
-        <v>227</v>
-      </c>
       <c r="X20">
-        <v>0.305</v>
+        <v>0.063</v>
       </c>
       <c r="Y20">
         <v>2</v>
@@ -2604,10 +2499,10 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>995</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>2962829</v>
+        <v>2967223</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2619,61 +2514,61 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G21">
-        <v>10.93962287902832</v>
+        <v>10.96424674987793</v>
       </c>
       <c r="H21">
-        <v>-74.77147674560547</v>
+        <v>-74.79908752441406</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="J21">
-        <v>7002431854</v>
+        <v>7002432151</v>
       </c>
       <c r="K21">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="L21">
         <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S21">
-        <v>3054433358</v>
+        <v>3116354060</v>
       </c>
       <c r="T21" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="U21" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V21" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W21" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X21">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>2</v>
@@ -2681,10 +2576,10 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>678</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>2965168</v>
+        <v>2965641</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2696,61 +2591,61 @@
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>10.94451999664307</v>
+        <v>10.96498203277588</v>
       </c>
       <c r="H22">
-        <v>-74.78980255126953</v>
+        <v>-74.80244445800781</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J22">
-        <v>7002431687</v>
+        <v>7002432057</v>
       </c>
       <c r="K22">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L22">
         <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O22" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="S22">
-        <v>3243458422</v>
+        <v>3117234835</v>
       </c>
       <c r="T22" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="U22" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V22" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X22">
-        <v>0.745</v>
+        <v>0.944</v>
       </c>
       <c r="Y22">
         <v>2</v>
@@ -2758,10 +2653,10 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="B23">
-        <v>2954864</v>
+        <v>2965649</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2773,61 +2668,61 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G23">
-        <v>10.95140171051025</v>
+        <v>10.9726390838623</v>
       </c>
       <c r="H23">
-        <v>-74.79917907714844</v>
+        <v>-74.8011474609375</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J23">
-        <v>7002431672</v>
+        <v>7002431593</v>
       </c>
       <c r="K23">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L23">
         <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S23">
-        <v>3122067524</v>
+        <v>3006092270</v>
       </c>
       <c r="T23" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="U23" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V23" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X23">
-        <v>1.03</v>
+        <v>1.329</v>
       </c>
       <c r="Y23">
         <v>2</v>
@@ -2835,10 +2730,10 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="B24">
-        <v>2959024</v>
+        <v>2967123</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2850,61 +2745,61 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>10.96424674987793</v>
+        <v>10.97214889526367</v>
       </c>
       <c r="H24">
-        <v>-74.79908752441406</v>
+        <v>-74.80821990966797</v>
       </c>
       <c r="I24" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J24">
-        <v>7002432347</v>
+        <v>7002432280</v>
       </c>
       <c r="K24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L24">
         <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O24" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S24">
-        <v>3017514173</v>
+        <v>3003214986</v>
       </c>
       <c r="T24" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="U24" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V24" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X24">
-        <v>0.063</v>
+        <v>0.987</v>
       </c>
       <c r="Y24">
         <v>2</v>
@@ -2912,10 +2807,10 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1">
-        <v>48</v>
+        <v>416</v>
       </c>
       <c r="B25">
-        <v>2967223</v>
+        <v>2964478</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -2924,64 +2819,64 @@
         <v>44601</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G25">
-        <v>10.96424674987793</v>
+        <v>10.97966480255127</v>
       </c>
       <c r="H25">
-        <v>-74.79908752441406</v>
+        <v>-74.80977630615234</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="J25">
-        <v>7002432151</v>
+        <v>7002431953</v>
       </c>
       <c r="K25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S25">
-        <v>3116354060</v>
+        <v>3014792931</v>
       </c>
       <c r="T25" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="U25" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V25" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>1.921</v>
       </c>
       <c r="Y25">
         <v>2</v>
@@ -2989,10 +2884,10 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="B26">
-        <v>2965641</v>
+        <v>2967561</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -3001,64 +2896,64 @@
         <v>44601</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G26">
-        <v>10.96498203277588</v>
+        <v>10.98325061798096</v>
       </c>
       <c r="H26">
-        <v>-74.80244445800781</v>
+        <v>-74.80337524414062</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J26">
-        <v>7002432057</v>
+        <v>7002432467</v>
       </c>
       <c r="K26">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L26">
         <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N26" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O26" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S26">
-        <v>3117234835</v>
+        <v>3006385909</v>
       </c>
       <c r="T26" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="U26" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V26" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W26" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X26">
-        <v>0.944</v>
+        <v>0.992</v>
       </c>
       <c r="Y26">
         <v>2</v>
@@ -3066,10 +2961,10 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B27">
-        <v>2965649</v>
+        <v>2967291</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3078,64 +2973,64 @@
         <v>44601</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>10.9726390838623</v>
+        <v>10.98511409759521</v>
       </c>
       <c r="H27">
-        <v>-74.8011474609375</v>
+        <v>-74.78804779052734</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J27">
-        <v>7002431593</v>
+        <v>7002432248</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L27">
         <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O27" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S27">
-        <v>3006092270</v>
+        <v>3016070254</v>
       </c>
       <c r="T27" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="U27" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V27" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W27" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X27">
-        <v>1.329</v>
+        <v>1.277</v>
       </c>
       <c r="Y27">
         <v>2</v>
@@ -3143,10 +3038,10 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B28">
-        <v>2967123</v>
+        <v>2967217</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3155,64 +3050,64 @@
         <v>44601</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G28">
-        <v>10.97214889526367</v>
+        <v>10.99099445343018</v>
       </c>
       <c r="H28">
-        <v>-74.80821990966797</v>
+        <v>-74.78353118896484</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J28">
-        <v>7002432280</v>
+        <v>7002432284</v>
       </c>
       <c r="K28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L28">
         <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N28" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O28" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S28">
-        <v>3003214986</v>
+        <v>3173499042</v>
       </c>
       <c r="T28" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="U28" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V28" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W28" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X28">
-        <v>0.987</v>
+        <v>0.104</v>
       </c>
       <c r="Y28">
         <v>2</v>
@@ -3220,10 +3115,10 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1">
-        <v>676</v>
+        <v>445</v>
       </c>
       <c r="B29">
-        <v>2964489</v>
+        <v>2967178</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3235,61 +3130,61 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G29">
-        <v>10.96224308013916</v>
+        <v>10.99099445343018</v>
       </c>
       <c r="H29">
-        <v>-74.81613159179688</v>
+        <v>-74.78353118896484</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J29">
-        <v>7002431688</v>
+        <v>7002432247</v>
       </c>
       <c r="K29">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="L29">
         <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N29" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O29" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S29">
-        <v>3146839506</v>
+        <v>3173499042</v>
       </c>
       <c r="T29" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="U29" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V29" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W29" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X29">
-        <v>0.972</v>
+        <v>0.271</v>
       </c>
       <c r="Y29">
         <v>2</v>
@@ -3297,10 +3192,10 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1">
-        <v>5</v>
+        <v>448</v>
       </c>
       <c r="B30">
-        <v>2949958</v>
+        <v>2967474</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3312,61 +3207,61 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G30">
-        <v>10.93268775939941</v>
+        <v>10.99482822418213</v>
       </c>
       <c r="H30">
-        <v>-74.78943634033203</v>
+        <v>-74.78803253173828</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J30">
-        <v>7002432159</v>
+        <v>7002432408</v>
       </c>
       <c r="K30">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="L30">
         <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N30" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S30">
-        <v>3046167841</v>
+        <v>3143027025</v>
       </c>
       <c r="T30" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="U30" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V30" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W30" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X30">
-        <v>0.23</v>
+        <v>1.35</v>
       </c>
       <c r="Y30">
         <v>2</v>
@@ -3374,13 +3269,13 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1">
-        <v>349</v>
+        <v>438</v>
       </c>
       <c r="B31">
-        <v>2920852</v>
+        <v>2966917</v>
       </c>
       <c r="C31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D31" s="2">
         <v>44601</v>
@@ -3389,72 +3284,72 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G31">
-        <v>10.99208354949951</v>
+        <v>10.95276832580566</v>
       </c>
       <c r="H31">
-        <v>-74.82035827636719</v>
+        <v>-74.78013610839844</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="J31">
-        <v>7002431727</v>
+        <v>7002431933</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L31">
         <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="N31" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O31" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S31">
-        <v>3125001644</v>
+        <v>3005400720</v>
       </c>
       <c r="T31" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="U31" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V31" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W31" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X31">
-        <v>0.229</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B32">
-        <v>2966685</v>
+        <v>2967535</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3463,64 +3358,64 @@
         <v>44601</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G32">
-        <v>10.99208354949951</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H32">
-        <v>-74.82035827636719</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J32">
-        <v>7002431729</v>
+        <v>7002432444</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N32" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O32" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S32">
-        <v>3223943335</v>
+        <v>3042113374</v>
       </c>
       <c r="T32" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="U32" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V32" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W32" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X32">
-        <v>5.001</v>
+        <v>0.242</v>
       </c>
       <c r="Y32">
         <v>3</v>
@@ -3528,10 +3423,10 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B33">
-        <v>2967518</v>
+        <v>2966925</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3540,22 +3435,22 @@
         <v>44601</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G33">
-        <v>10.99525833129883</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H33">
-        <v>-74.82118988037109</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="J33">
-        <v>7002432442</v>
+        <v>7002432379</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3564,40 +3459,40 @@
         <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N33" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S33">
-        <v>3015910076</v>
+        <v>3213824925</v>
       </c>
       <c r="T33" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="U33" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V33" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W33" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X33">
-        <v>2.087</v>
+        <v>1.22</v>
       </c>
       <c r="Y33">
         <v>3</v>
@@ -3605,10 +3500,10 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B34">
-        <v>2966852</v>
+        <v>2967091</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3617,22 +3512,22 @@
         <v>44601</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G34">
-        <v>10.99914264678955</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H34">
-        <v>-74.8282470703125</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J34">
-        <v>7002432128</v>
+        <v>7002432029</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3641,40 +3536,40 @@
         <v>72</v>
       </c>
       <c r="M34" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N34" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O34" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S34">
-        <v>3004005951</v>
+        <v>3003765369</v>
       </c>
       <c r="T34" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="U34" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V34" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W34" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X34">
-        <v>0.745</v>
+        <v>3.93</v>
       </c>
       <c r="Y34">
         <v>3</v>
@@ -3682,10 +3577,10 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="B35">
-        <v>2966739</v>
+        <v>2962143</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3694,64 +3589,64 @@
         <v>44601</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G35">
-        <v>11.00480079650879</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H35">
-        <v>-74.8116455078125</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="J35">
-        <v>7002431651</v>
+        <v>7002431918</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>72</v>
       </c>
       <c r="M35" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N35" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O35" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S35">
-        <v>3008155651</v>
+        <v>3117732675</v>
       </c>
       <c r="T35" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="U35" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V35" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W35" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X35">
-        <v>0.1</v>
+        <v>6.408</v>
       </c>
       <c r="Y35">
         <v>3</v>
@@ -3759,10 +3654,10 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="1">
-        <v>685</v>
+        <v>450</v>
       </c>
       <c r="B36">
-        <v>2967350</v>
+        <v>2967520</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -3771,64 +3666,64 @@
         <v>44601</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G36">
-        <v>10.99899864196777</v>
+        <v>11.01446342468262</v>
       </c>
       <c r="H36">
-        <v>-74.80156707763672</v>
+        <v>-74.82730865478516</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J36">
-        <v>7002432288</v>
+        <v>7002432438</v>
       </c>
       <c r="K36">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N36" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O36" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S36">
-        <v>3168748238</v>
+        <v>3008151499</v>
       </c>
       <c r="T36" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="U36" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V36" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W36" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X36">
-        <v>1.086</v>
+        <v>0.39</v>
       </c>
       <c r="Y36">
         <v>3</v>
@@ -3836,10 +3731,10 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B37">
-        <v>2967030</v>
+        <v>2964709</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -3848,64 +3743,64 @@
         <v>44601</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G37">
-        <v>11.00149631500244</v>
+        <v>11.01517295837402</v>
       </c>
       <c r="H37">
-        <v>-74.80015563964844</v>
+        <v>-74.80654144287109</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J37">
-        <v>7002431941</v>
+        <v>7002431843</v>
       </c>
       <c r="K37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L37">
         <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N37" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O37" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S37">
-        <v>3008853811</v>
+        <v>3014320392</v>
       </c>
       <c r="T37" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="U37" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V37" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W37" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X37">
-        <v>2.444</v>
+        <v>0.451</v>
       </c>
       <c r="Y37">
         <v>3</v>
@@ -3913,10 +3808,10 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="B38">
-        <v>2967474</v>
+        <v>2950002</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -3925,64 +3820,64 @@
         <v>44601</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G38">
-        <v>10.99482822418213</v>
+        <v>11.02181053161621</v>
       </c>
       <c r="H38">
-        <v>-74.78803253173828</v>
+        <v>-74.87113952636719</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J38">
-        <v>7002432408</v>
+        <v>7002431600</v>
       </c>
       <c r="K38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S38">
-        <v>3143027025</v>
+        <v>3014631170</v>
       </c>
       <c r="T38" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="U38" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V38" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W38" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X38">
-        <v>1.35</v>
+        <v>0.97</v>
       </c>
       <c r="Y38">
         <v>3</v>
@@ -3990,10 +3885,10 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B39">
-        <v>2967217</v>
+        <v>2965985</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -4002,64 +3897,64 @@
         <v>44601</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G39">
-        <v>10.99099445343018</v>
+        <v>11.03202056884766</v>
       </c>
       <c r="H39">
-        <v>-74.78353118896484</v>
+        <v>-74.87136840820312</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J39">
-        <v>7002432284</v>
+        <v>7002431719</v>
       </c>
       <c r="K39">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N39" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S39">
-        <v>3173499042</v>
+        <v>3006619610</v>
       </c>
       <c r="T39" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="U39" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V39" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W39" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X39">
-        <v>0.104</v>
+        <v>0.719</v>
       </c>
       <c r="Y39">
         <v>3</v>
@@ -4067,10 +3962,10 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1">
-        <v>445</v>
+        <v>686</v>
       </c>
       <c r="B40">
-        <v>2967178</v>
+        <v>2967367</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -4082,72 +3977,72 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G40">
-        <v>10.99099445343018</v>
+        <v>10.95015811920166</v>
       </c>
       <c r="H40">
-        <v>-74.78353118896484</v>
+        <v>-74.85592651367188</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="J40">
-        <v>7002432247</v>
+        <v>7002432299</v>
       </c>
       <c r="K40">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L40">
         <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="N40" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O40" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S40">
-        <v>3173499042</v>
+        <v>3017082213</v>
       </c>
       <c r="T40" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="U40" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V40" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W40" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X40">
-        <v>0.271</v>
+        <v>0.122</v>
       </c>
       <c r="Y40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1">
-        <v>29</v>
+        <v>684</v>
       </c>
       <c r="B41">
-        <v>2963687</v>
+        <v>2967337</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -4156,75 +4051,75 @@
         <v>44601</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G41">
-        <v>10.97611999511719</v>
+        <v>10.95015811920166</v>
       </c>
       <c r="H41">
-        <v>-74.78810119628906</v>
+        <v>-74.85592651367188</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="J41">
-        <v>7002432328</v>
+        <v>7002432292</v>
       </c>
       <c r="K41">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L41">
         <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="N41" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O41" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S41">
-        <v>3003426887</v>
+        <v>3212323133</v>
       </c>
       <c r="T41" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="U41" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V41" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W41" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X41">
-        <v>0.15</v>
+        <v>1.09</v>
       </c>
       <c r="Y41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1">
-        <v>419</v>
+        <v>676</v>
       </c>
       <c r="B42">
-        <v>2964709</v>
+        <v>2964489</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -4233,75 +4128,75 @@
         <v>44601</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G42">
-        <v>11.01517295837402</v>
+        <v>10.96224308013916</v>
       </c>
       <c r="H42">
-        <v>-74.80654144287109</v>
+        <v>-74.81613159179688</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="J42">
-        <v>7002431843</v>
+        <v>7002431688</v>
       </c>
       <c r="K42">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L42">
         <v>72</v>
       </c>
       <c r="M42" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="N42" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O42" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="S42">
-        <v>3014320392</v>
+        <v>3146839506</v>
       </c>
       <c r="T42" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="U42" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V42" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W42" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X42">
-        <v>0.451</v>
+        <v>0.972</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1">
-        <v>993</v>
+        <v>685</v>
       </c>
       <c r="B43">
-        <v>2962313</v>
+        <v>2967350</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -4310,75 +4205,75 @@
         <v>44601</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <v>10.91673946380615</v>
+        <v>10.99899864196777</v>
       </c>
       <c r="H43">
-        <v>-74.76981353759766</v>
+        <v>-74.80156707763672</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="J43">
-        <v>7002432301</v>
+        <v>7002432288</v>
       </c>
       <c r="K43">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L43">
         <v>72</v>
       </c>
       <c r="M43" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="N43" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O43" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S43">
-        <v>3005787315</v>
+        <v>3168748238</v>
       </c>
       <c r="T43" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="U43" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V43" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W43" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X43">
-        <v>1.717</v>
+        <v>1.086</v>
       </c>
       <c r="Y43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1">
-        <v>686</v>
+        <v>441</v>
       </c>
       <c r="B44">
-        <v>2967367</v>
+        <v>2967030</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -4387,64 +4282,64 @@
         <v>44601</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G44">
-        <v>10.95015811920166</v>
+        <v>11.00149631500244</v>
       </c>
       <c r="H44">
-        <v>-74.85592651367188</v>
+        <v>-74.80015563964844</v>
       </c>
       <c r="I44" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="J44">
-        <v>7002432299</v>
+        <v>7002431941</v>
       </c>
       <c r="K44">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L44">
         <v>72</v>
       </c>
       <c r="M44" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N44" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O44" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="S44">
-        <v>3017082213</v>
+        <v>3008853811</v>
       </c>
       <c r="T44" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="U44" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V44" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W44" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X44">
-        <v>0.122</v>
+        <v>2.444</v>
       </c>
       <c r="Y44">
         <v>4</v>
@@ -4452,10 +4347,10 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1">
-        <v>684</v>
+        <v>986</v>
       </c>
       <c r="B45">
-        <v>2967337</v>
+        <v>2956413</v>
       </c>
       <c r="C45">
         <v>2022</v>
@@ -4467,756 +4362,63 @@
         <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G45">
-        <v>10.95015811920166</v>
+        <v>11.00696754455566</v>
       </c>
       <c r="H45">
-        <v>-74.85592651367188</v>
+        <v>-74.82685852050781</v>
       </c>
       <c r="I45" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J45">
-        <v>7002432292</v>
+        <v>7002431714</v>
       </c>
       <c r="K45">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L45">
         <v>72</v>
       </c>
       <c r="M45" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="N45" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O45" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="S45">
-        <v>3212323133</v>
+        <v>3126039779</v>
       </c>
       <c r="T45" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="U45" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="V45" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="W45" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="X45">
-        <v>1.09</v>
+        <v>0.865</v>
       </c>
       <c r="Y45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
-      <c r="A46" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B46">
-        <v>2966982</v>
-      </c>
-      <c r="C46">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46">
-        <v>10.97778129577637</v>
-      </c>
-      <c r="H46">
-        <v>-74.842529296875</v>
-      </c>
-      <c r="I46" t="s">
-        <v>155</v>
-      </c>
-      <c r="J46">
-        <v>7002431943</v>
-      </c>
-      <c r="K46">
-        <v>18</v>
-      </c>
-      <c r="L46">
-        <v>72</v>
-      </c>
-      <c r="M46" t="s">
-        <v>164</v>
-      </c>
-      <c r="N46" t="s">
-        <v>165</v>
-      </c>
-      <c r="O46" t="s">
-        <v>166</v>
-      </c>
-      <c r="P46" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>172</v>
-      </c>
-      <c r="S46">
-        <v>3143011484</v>
-      </c>
-      <c r="T46" t="s">
-        <v>216</v>
-      </c>
-      <c r="U46" t="s">
-        <v>225</v>
-      </c>
-      <c r="V46" t="s">
-        <v>226</v>
-      </c>
-      <c r="W46" t="s">
-        <v>227</v>
-      </c>
-      <c r="X46">
-        <v>2.441</v>
-      </c>
-      <c r="Y46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>2949112</v>
-      </c>
-      <c r="C47">
-        <v>2022</v>
-      </c>
-      <c r="D47" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47">
-        <v>10.98295974731445</v>
-      </c>
-      <c r="H47">
-        <v>-74.83267211914062</v>
-      </c>
-      <c r="I47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J47">
-        <v>7002431772</v>
-      </c>
-      <c r="K47">
-        <v>17</v>
-      </c>
-      <c r="L47">
-        <v>72</v>
-      </c>
-      <c r="M47" t="s">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s">
-        <v>165</v>
-      </c>
-      <c r="O47" t="s">
-        <v>166</v>
-      </c>
-      <c r="P47" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>173</v>
-      </c>
-      <c r="S47">
-        <v>3109803456</v>
-      </c>
-      <c r="T47" t="s">
-        <v>217</v>
-      </c>
-      <c r="U47" t="s">
-        <v>225</v>
-      </c>
-      <c r="V47" t="s">
-        <v>226</v>
-      </c>
-      <c r="W47" t="s">
-        <v>227</v>
-      </c>
-      <c r="X47">
-        <v>0.745</v>
-      </c>
-      <c r="Y47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
-      <c r="A48" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B48">
-        <v>2967193</v>
-      </c>
-      <c r="C48">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48">
-        <v>10.97892475128174</v>
-      </c>
-      <c r="H48">
-        <v>-74.81726837158203</v>
-      </c>
-      <c r="I48" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48">
-        <v>7002432139</v>
-      </c>
-      <c r="K48">
-        <v>23</v>
-      </c>
-      <c r="L48">
-        <v>72</v>
-      </c>
-      <c r="M48" t="s">
-        <v>163</v>
-      </c>
-      <c r="N48" t="s">
-        <v>165</v>
-      </c>
-      <c r="O48" t="s">
-        <v>166</v>
-      </c>
-      <c r="P48" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
-        <v>172</v>
-      </c>
-      <c r="S48">
-        <v>3162784249</v>
-      </c>
-      <c r="T48" t="s">
-        <v>218</v>
-      </c>
-      <c r="U48" t="s">
-        <v>225</v>
-      </c>
-      <c r="V48" t="s">
-        <v>226</v>
-      </c>
-      <c r="W48" t="s">
-        <v>227</v>
-      </c>
-      <c r="X48">
-        <v>0.798</v>
-      </c>
-      <c r="Y48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="1">
-        <v>416</v>
-      </c>
-      <c r="B49">
-        <v>2964478</v>
-      </c>
-      <c r="C49">
-        <v>2022</v>
-      </c>
-      <c r="D49" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49">
-        <v>10.97966480255127</v>
-      </c>
-      <c r="H49">
-        <v>-74.80977630615234</v>
-      </c>
-      <c r="I49" t="s">
-        <v>158</v>
-      </c>
-      <c r="J49">
-        <v>7002431953</v>
-      </c>
-      <c r="K49">
-        <v>23</v>
-      </c>
-      <c r="L49">
-        <v>72</v>
-      </c>
-      <c r="M49" t="s">
-        <v>163</v>
-      </c>
-      <c r="N49" t="s">
-        <v>165</v>
-      </c>
-      <c r="O49" t="s">
-        <v>166</v>
-      </c>
-      <c r="P49" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>172</v>
-      </c>
-      <c r="S49">
-        <v>3014792931</v>
-      </c>
-      <c r="T49" t="s">
-        <v>219</v>
-      </c>
-      <c r="U49" t="s">
-        <v>225</v>
-      </c>
-      <c r="V49" t="s">
-        <v>226</v>
-      </c>
-      <c r="W49" t="s">
-        <v>227</v>
-      </c>
-      <c r="X49">
-        <v>1.921</v>
-      </c>
-      <c r="Y49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
-      <c r="A50" s="1">
-        <v>452</v>
-      </c>
-      <c r="B50">
-        <v>2967561</v>
-      </c>
-      <c r="C50">
-        <v>2022</v>
-      </c>
-      <c r="D50" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50">
-        <v>10.98325061798096</v>
-      </c>
-      <c r="H50">
-        <v>-74.80337524414062</v>
-      </c>
-      <c r="I50" t="s">
-        <v>159</v>
-      </c>
-      <c r="J50">
-        <v>7002432467</v>
-      </c>
-      <c r="K50">
-        <v>16</v>
-      </c>
-      <c r="L50">
-        <v>72</v>
-      </c>
-      <c r="M50" t="s">
-        <v>163</v>
-      </c>
-      <c r="N50" t="s">
-        <v>165</v>
-      </c>
-      <c r="O50" t="s">
-        <v>166</v>
-      </c>
-      <c r="P50" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>172</v>
-      </c>
-      <c r="S50">
-        <v>3006385909</v>
-      </c>
-      <c r="T50" t="s">
-        <v>220</v>
-      </c>
-      <c r="U50" t="s">
-        <v>225</v>
-      </c>
-      <c r="V50" t="s">
-        <v>226</v>
-      </c>
-      <c r="W50" t="s">
-        <v>227</v>
-      </c>
-      <c r="X50">
-        <v>0.992</v>
-      </c>
-      <c r="Y50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>2967291</v>
-      </c>
-      <c r="C51">
-        <v>2022</v>
-      </c>
-      <c r="D51" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E51" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51">
-        <v>10.98511409759521</v>
-      </c>
-      <c r="H51">
-        <v>-74.78804779052734</v>
-      </c>
-      <c r="I51" t="s">
-        <v>160</v>
-      </c>
-      <c r="J51">
-        <v>7002432248</v>
-      </c>
-      <c r="K51">
-        <v>15</v>
-      </c>
-      <c r="L51">
-        <v>72</v>
-      </c>
-      <c r="M51" t="s">
-        <v>163</v>
-      </c>
-      <c r="N51" t="s">
-        <v>165</v>
-      </c>
-      <c r="O51" t="s">
-        <v>166</v>
-      </c>
-      <c r="P51" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>172</v>
-      </c>
-      <c r="S51">
-        <v>3016070254</v>
-      </c>
-      <c r="T51" t="s">
-        <v>221</v>
-      </c>
-      <c r="U51" t="s">
-        <v>225</v>
-      </c>
-      <c r="V51" t="s">
-        <v>226</v>
-      </c>
-      <c r="W51" t="s">
-        <v>227</v>
-      </c>
-      <c r="X51">
-        <v>1.277</v>
-      </c>
-      <c r="Y51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="A52" s="1">
-        <v>986</v>
-      </c>
-      <c r="B52">
-        <v>2956413</v>
-      </c>
-      <c r="C52">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52">
-        <v>11.00696754455566</v>
-      </c>
-      <c r="H52">
-        <v>-74.82685852050781</v>
-      </c>
-      <c r="I52" t="s">
-        <v>161</v>
-      </c>
-      <c r="J52">
-        <v>7002431714</v>
-      </c>
-      <c r="K52">
-        <v>6</v>
-      </c>
-      <c r="L52">
-        <v>72</v>
-      </c>
-      <c r="M52" t="s">
-        <v>163</v>
-      </c>
-      <c r="N52" t="s">
-        <v>165</v>
-      </c>
-      <c r="O52" t="s">
-        <v>166</v>
-      </c>
-      <c r="P52" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>172</v>
-      </c>
-      <c r="S52">
-        <v>3126039779</v>
-      </c>
-      <c r="T52" t="s">
-        <v>222</v>
-      </c>
-      <c r="U52" t="s">
-        <v>225</v>
-      </c>
-      <c r="V52" t="s">
-        <v>226</v>
-      </c>
-      <c r="W52" t="s">
-        <v>227</v>
-      </c>
-      <c r="X52">
-        <v>0.865</v>
-      </c>
-      <c r="Y52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
-      <c r="A53" s="1">
-        <v>32</v>
-      </c>
-      <c r="B53">
-        <v>2964052</v>
-      </c>
-      <c r="C53">
-        <v>2022</v>
-      </c>
-      <c r="D53" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53">
-        <v>11.00191307067871</v>
-      </c>
-      <c r="H53">
-        <v>-74.83025360107422</v>
-      </c>
-      <c r="I53" t="s">
-        <v>162</v>
-      </c>
-      <c r="J53">
-        <v>7002432412</v>
-      </c>
-      <c r="K53">
-        <v>6</v>
-      </c>
-      <c r="L53">
-        <v>72</v>
-      </c>
-      <c r="M53" t="s">
-        <v>163</v>
-      </c>
-      <c r="N53" t="s">
-        <v>165</v>
-      </c>
-      <c r="O53" t="s">
-        <v>166</v>
-      </c>
-      <c r="P53" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>173</v>
-      </c>
-      <c r="S53">
-        <v>3002414841</v>
-      </c>
-      <c r="T53" t="s">
-        <v>223</v>
-      </c>
-      <c r="U53" t="s">
-        <v>225</v>
-      </c>
-      <c r="V53" t="s">
-        <v>226</v>
-      </c>
-      <c r="W53" t="s">
-        <v>227</v>
-      </c>
-      <c r="X53">
-        <v>0.179</v>
-      </c>
-      <c r="Y53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="A54" s="1">
-        <v>399</v>
-      </c>
-      <c r="B54">
-        <v>2962393</v>
-      </c>
-      <c r="C54">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54">
-        <v>11.00191307067871</v>
-      </c>
-      <c r="H54">
-        <v>-74.83025360107422</v>
-      </c>
-      <c r="I54" t="s">
-        <v>162</v>
-      </c>
-      <c r="J54">
-        <v>7002431656</v>
-      </c>
-      <c r="K54">
-        <v>6</v>
-      </c>
-      <c r="L54">
-        <v>72</v>
-      </c>
-      <c r="M54" t="s">
-        <v>163</v>
-      </c>
-      <c r="N54" t="s">
-        <v>165</v>
-      </c>
-      <c r="O54" t="s">
-        <v>166</v>
-      </c>
-      <c r="P54" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>173</v>
-      </c>
-      <c r="S54">
-        <v>3015339254</v>
-      </c>
-      <c r="T54" t="s">
-        <v>224</v>
-      </c>
-      <c r="U54" t="s">
-        <v>225</v>
-      </c>
-      <c r="V54" t="s">
-        <v>226</v>
-      </c>
-      <c r="W54" t="s">
-        <v>227</v>
-      </c>
-      <c r="X54">
-        <v>1.442</v>
-      </c>
-      <c r="Y54">
         <v>4</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="228">
   <si>
     <t>REM</t>
   </si>
@@ -88,6 +88,39 @@
     <t>CAMION</t>
   </si>
   <si>
+    <t>OLAYA</t>
+  </si>
+  <si>
+    <t>EL RECREO</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>BELLAVISTA</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>ALTOS DEL PRADO</t>
+  </si>
+  <si>
+    <t>PARAISO</t>
+  </si>
+  <si>
+    <t>CIUDAD JARDIN</t>
+  </si>
+  <si>
+    <t>COUN.CLUB VILLA</t>
+  </si>
+  <si>
+    <t>ADELITA DE CHAR</t>
+  </si>
+  <si>
     <t>LA PRADERA</t>
   </si>
   <si>
@@ -106,30 +139,72 @@
     <t>BELLO HORIZONTE</t>
   </si>
   <si>
-    <t>CIUDAD JARDIN</t>
+    <t>EL POBLADO</t>
+  </si>
+  <si>
+    <t>BUENA VISTA</t>
   </si>
   <si>
     <t>EL SILENCIO</t>
   </si>
   <si>
-    <t>ALTOS DEL PRADO</t>
+    <t>LIPAYA</t>
   </si>
   <si>
     <t>CHIQUINQUIRA</t>
   </si>
   <si>
+    <t>ABAJO</t>
+  </si>
+  <si>
+    <t>CARIBE VERDE</t>
+  </si>
+  <si>
     <t>CONIDEC</t>
   </si>
   <si>
+    <t>LOS ROBLES</t>
+  </si>
+  <si>
+    <t>VILLA LAS MORAS</t>
+  </si>
+  <si>
+    <t>VILLA SEVERA</t>
+  </si>
+  <si>
+    <t>SEC. MIRAMAR</t>
+  </si>
+  <si>
+    <t>SECTOR MIRAMAR</t>
+  </si>
+  <si>
+    <t>LOS ALMENDROS</t>
+  </si>
+  <si>
+    <t>URB. EL MANANTIAL</t>
+  </si>
+  <si>
+    <t>C.METROPOLITANA</t>
+  </si>
+  <si>
+    <t>CARNERO</t>
+  </si>
+  <si>
+    <t>URB NUEVA ESPERANZA</t>
+  </si>
+  <si>
+    <t>COSTA HERMOSA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>LAS PALMAS</t>
+  </si>
+  <si>
     <t>GALAN</t>
   </si>
   <si>
-    <t>VILLA SEVERA</t>
-  </si>
-  <si>
-    <t>LAS PALMAS</t>
-  </si>
-  <si>
     <t>LA VICTORIA</t>
   </si>
   <si>
@@ -145,55 +220,40 @@
     <t>SAN FELIPE</t>
   </si>
   <si>
-    <t>OLAYA</t>
-  </si>
-  <si>
-    <t>EL RECREO</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>ABAJO</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>SEC. MIRAMAR</t>
-  </si>
-  <si>
-    <t>SECTOR MIRAMAR</t>
-  </si>
-  <si>
-    <t>BUENA VISTA</t>
-  </si>
-  <si>
-    <t>PARAISO</t>
-  </si>
-  <si>
-    <t>COUN.CLUB VILLA</t>
-  </si>
-  <si>
-    <t>ADELITA DE CHAR</t>
-  </si>
-  <si>
-    <t>CARIBE VERDE</t>
-  </si>
-  <si>
-    <t>LIPAYA</t>
-  </si>
-  <si>
-    <t>PRADO</t>
-  </si>
-  <si>
-    <t>BELLAVISTA</t>
-  </si>
-  <si>
-    <t>EL POBLADO</t>
+    <t xml:space="preserve">CL  68B  29   60  AP  1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  41  52  24  AP  301B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  41  38  67  PI  5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  58  66  32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  63  64  03  AP  4C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  55  82  227  AP  1403  PI  14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  50  76  19  LC  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  74  82  82  AP  406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  79B  42F  158  AP  304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  42E  80  139 </t>
+  </si>
+  <si>
+    <t>TR  3B  22  246  BL  1  AP  504</t>
+  </si>
+  <si>
+    <t>CL  20A  17  45  PI  1  AP</t>
   </si>
   <si>
     <t xml:space="preserve">CR  37  115  75 </t>
@@ -220,33 +280,84 @@
     <t xml:space="preserve">CR  42F  84B  50  CS </t>
   </si>
   <si>
-    <t xml:space="preserve">CL  79B  42F  158  AP  304 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  42E  80  139 </t>
+    <t xml:space="preserve">CL  91  46  80  AP  204  </t>
+  </si>
+  <si>
+    <t>CL  104  51B  154  CS  53</t>
   </si>
   <si>
     <t xml:space="preserve">CR  26B  73C  71  PI  1  AP </t>
   </si>
   <si>
-    <t xml:space="preserve">CR  50  76  19  LC  16 </t>
+    <t xml:space="preserve">CL  70C  9J1  25 </t>
   </si>
   <si>
     <t xml:space="preserve">CL  42  29  41 </t>
   </si>
   <si>
+    <t xml:space="preserve">CL  40  50  61 </t>
+  </si>
+  <si>
+    <t>CR  9G  136  132  BL  10  AP  104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  9G  DIAGONAL 136  132 TORRE 10 APTO.104 </t>
+  </si>
+  <si>
     <t xml:space="preserve">CL  48B  3ASUR  04 </t>
   </si>
   <si>
+    <t xml:space="preserve">DA  1C  66  02      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  10A  74A  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  48  54D  41  CASA  CS  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR  44  102  72  BL  2  AP  514 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  102  43  35  BL  5  AP  928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR  44  100  82  AP  326  BL  7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR  44  102  167  AP  1041  TO  5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  12BSCALMENDROSCAMPESTRE  78C  59 </t>
+  </si>
+  <si>
+    <t>CR  13  77B  30  PI  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  13  68  11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  54B  6F  16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  26  17D  23  AP  503  TO  6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA  77  56  39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR  44  30  103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  21  23  22  AP  1  PI  1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL  35  7F  23  AP  1 </t>
+  </si>
+  <si>
     <t xml:space="preserve">CR  3A  36  27  </t>
   </si>
   <si>
-    <t xml:space="preserve">CR  48  54D  41  CASA  CS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  35  7F  23  AP  1 </t>
-  </si>
-  <si>
     <t>CR  10B  45C2  28  CS</t>
   </si>
   <si>
@@ -265,64 +376,37 @@
     <t xml:space="preserve">CR  24B  72  97 </t>
   </si>
   <si>
-    <t xml:space="preserve">CL  68B  29   60  AP  1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  41  52  24  AP  301B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  41  38  67  PI  5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  40  50  61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  58  66  32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  21  23  22  AP  1  PI  1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR  44  102  72  BL  2  AP  514 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  102  43  35  BL  5  AP  928 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR  44  100  82  AP  326  BL  7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR  44  102  167  AP  1041  TO  5 </t>
-  </si>
-  <si>
-    <t>CL  104  51B  154  CS  53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  74  82  82  AP  406 </t>
-  </si>
-  <si>
-    <t>TR  3B  22  246  BL  1  AP  504</t>
-  </si>
-  <si>
-    <t>CL  20A  17  45  PI  1  AP</t>
-  </si>
-  <si>
-    <t>CR  9G  136  132  BL  10  AP  104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  9G  DIAGONAL 136  132 TORRE 10 APTO.104 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  70C  9J1  25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  55  82  227  AP  1403  PI  14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR  63  64  03  AP  4C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL  91  46  80  AP  204  </t>
+    <t>BAQ - OLAYA</t>
+  </si>
+  <si>
+    <t>BAQ - EL RECREO</t>
+  </si>
+  <si>
+    <t>BAQ - ROSARIO</t>
+  </si>
+  <si>
+    <t>BAQ - MODELO</t>
+  </si>
+  <si>
+    <t>BAQ - BELLAVISTA</t>
+  </si>
+  <si>
+    <t>BAQ - PRADO</t>
+  </si>
+  <si>
+    <t>BAQ - ALTOS DEL PRADO</t>
+  </si>
+  <si>
+    <t>BAQ - PARAISO</t>
+  </si>
+  <si>
+    <t>BAQ - CIUDAD JARDIN</t>
+  </si>
+  <si>
+    <t>BAQ - COUN.CLUB VILLA</t>
+  </si>
+  <si>
+    <t>BAQ - ADELITA DE CHAR</t>
   </si>
   <si>
     <t>BAQ - LA PRADERA</t>
@@ -343,30 +427,69 @@
     <t>BAQ - BELLO HORIZONTE</t>
   </si>
   <si>
-    <t>BAQ - CIUDAD JARDIN</t>
+    <t>BAQ - EL POBLADO</t>
+  </si>
+  <si>
+    <t>BAQ - BUENA VISTA</t>
   </si>
   <si>
     <t>BAQ - EL SILENCIO</t>
   </si>
   <si>
-    <t>BAQ - ALTOS DEL PRADO</t>
+    <t>BAQ - LIPAYA</t>
   </si>
   <si>
     <t>BAQ - CHIQUINQUIRA</t>
   </si>
   <si>
+    <t>BAQ - ABAJO</t>
+  </si>
+  <si>
+    <t>BAQ - CIUDAD CARIBE</t>
+  </si>
+  <si>
     <t>BAQ - CONIDEC</t>
   </si>
   <si>
+    <t>SOL - LOS ROBLES</t>
+  </si>
+  <si>
+    <t>SOL - VILLA LAS MORAS</t>
+  </si>
+  <si>
+    <t>SOL - VILLA CEVERA</t>
+  </si>
+  <si>
+    <t>BAQ - SECTOR MIRAMAR</t>
+  </si>
+  <si>
+    <t>SOL - LOS ALMENDROS</t>
+  </si>
+  <si>
+    <t>SOL - URB. EL MANANTIAL</t>
+  </si>
+  <si>
+    <t>SOL - C.METROPOLITANA</t>
+  </si>
+  <si>
+    <t>SOL - CARNERO</t>
+  </si>
+  <si>
+    <t>SOL - LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>SOL - COSTA HERMOSA</t>
+  </si>
+  <si>
+    <t>BAQ - NIEVES</t>
+  </si>
+  <si>
+    <t>BAQ - LAS PALMAS</t>
+  </si>
+  <si>
     <t>BAQ - GALAN</t>
   </si>
   <si>
-    <t>SOL - VILLA CEVERA</t>
-  </si>
-  <si>
-    <t>BAQ - LAS PALMAS</t>
-  </si>
-  <si>
     <t>BAQ - LA VICTORIA</t>
   </si>
   <si>
@@ -382,84 +505,75 @@
     <t>BAQ - SAN FELIPE</t>
   </si>
   <si>
-    <t>BAQ - OLAYA</t>
-  </si>
-  <si>
-    <t>BAQ - EL RECREO</t>
-  </si>
-  <si>
-    <t>BAQ - ROSARIO</t>
-  </si>
-  <si>
-    <t>BAQ - ABAJO</t>
-  </si>
-  <si>
-    <t>BAQ - MODELO</t>
-  </si>
-  <si>
-    <t>BAQ - NIEVES</t>
-  </si>
-  <si>
-    <t>BAQ - SECTOR MIRAMAR</t>
-  </si>
-  <si>
-    <t>BAQ - BUENA VISTA</t>
-  </si>
-  <si>
-    <t>BAQ - PARAISO</t>
-  </si>
-  <si>
-    <t>BAQ - COUN.CLUB VILLA</t>
-  </si>
-  <si>
-    <t>BAQ - ADELITA DE CHAR</t>
-  </si>
-  <si>
-    <t>BAQ - CIUDAD CARIBE</t>
-  </si>
-  <si>
-    <t>BAQ - LIPAYA</t>
-  </si>
-  <si>
-    <t>BAQ - PRADO</t>
-  </si>
-  <si>
-    <t>BAQ - BELLAVISTA</t>
-  </si>
-  <si>
-    <t>BAQ - EL POBLADO</t>
+    <t>BAJA</t>
   </si>
   <si>
     <t>MEDIA</t>
   </si>
   <si>
-    <t>BAJA</t>
-  </si>
-  <si>
     <t>ATLANTICO</t>
   </si>
   <si>
     <t>BARRANQUILLA</t>
   </si>
   <si>
+    <t>SOLEDAD</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
     <t>XX</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>No Definido</t>
   </si>
   <si>
     <t>COMPLETA</t>
   </si>
   <si>
+    <t>3014792931</t>
+  </si>
+  <si>
+    <t>573006385909-3002653019-3006385909</t>
+  </si>
+  <si>
+    <t>3016070254-3790443-3042427577</t>
+  </si>
+  <si>
+    <t>3017843874-3143027025</t>
+  </si>
+  <si>
+    <t>3736153-3005364400-3072544</t>
+  </si>
+  <si>
+    <t>3157066242-3135714133-4228855</t>
+  </si>
+  <si>
+    <t>3776250-3008155651-3017547793</t>
+  </si>
+  <si>
+    <t>3014320392-3015380051</t>
+  </si>
+  <si>
+    <t>3125001644-3226489596-3127483289</t>
+  </si>
+  <si>
+    <t>3138693507-3223943335</t>
+  </si>
+  <si>
+    <t>3014631170-3003109946</t>
+  </si>
+  <si>
+    <t>3044140570-3006619610</t>
+  </si>
+  <si>
     <t>3143011484-3012987708</t>
   </si>
   <si>
@@ -484,33 +598,81 @@
     <t>3473909-3015910076-3797105</t>
   </si>
   <si>
-    <t>3125001644-3226489596-3127483289</t>
-  </si>
-  <si>
-    <t>3138693507-3223943335</t>
+    <t>3126039779-7271603-3114010997</t>
+  </si>
+  <si>
+    <t>3008151499</t>
   </si>
   <si>
     <t>3162784249-3654164-3157236115</t>
   </si>
   <si>
-    <t>3776250-3008155651-3017547793</t>
+    <t>3146839506</t>
   </si>
   <si>
     <t>3705889-3103798735-3003426885</t>
   </si>
   <si>
+    <t>3162582460-3173499042</t>
+  </si>
+  <si>
+    <t>3017082213-3212323133-3152392498</t>
+  </si>
+  <si>
     <t>3008303232-3003006831</t>
   </si>
   <si>
+    <t>3002867575-3015583147</t>
+  </si>
+  <si>
+    <t>3017736847-3242140609</t>
+  </si>
+  <si>
+    <t>3046167841-3641780</t>
+  </si>
+  <si>
+    <t>3042113374-3016254865-3012997612</t>
+  </si>
+  <si>
+    <t>3144748672-3213112050-3106941903</t>
+  </si>
+  <si>
+    <t>3043445251-3003765369-3004351352</t>
+  </si>
+  <si>
+    <t>3117732675-3103906768-3125181901</t>
+  </si>
+  <si>
+    <t>3008833472-3244532327-3008433601</t>
+  </si>
+  <si>
+    <t>3004892464-3052757873</t>
+  </si>
+  <si>
+    <t>3135215513-3003266674-3004771007</t>
+  </si>
+  <si>
+    <t>3053232293</t>
+  </si>
+  <si>
+    <t>3157158755-3162879041-3005787315</t>
+  </si>
+  <si>
+    <t>3114247132-3268744-3007132598</t>
+  </si>
+  <si>
+    <t>3742573-3137446109-3054433358</t>
+  </si>
+  <si>
+    <t>3023306410-3003446698-3005400720</t>
+  </si>
+  <si>
+    <t>3015570764-3243458422</t>
+  </si>
+  <si>
     <t>3265427-3218445807-3008577035</t>
   </si>
   <si>
-    <t>3046167841-3641780</t>
-  </si>
-  <si>
-    <t>3015570764-3243458422</t>
-  </si>
-  <si>
     <t>3122067524-3012088756</t>
   </si>
   <si>
@@ -527,63 +689,6 @@
   </si>
   <si>
     <t>3012500579-3663307-3003214986</t>
-  </si>
-  <si>
-    <t>3014792931</t>
-  </si>
-  <si>
-    <t>573006385909-3002653019-3006385909</t>
-  </si>
-  <si>
-    <t>3016070254-3790443-3042427577</t>
-  </si>
-  <si>
-    <t>3162582460-3173499042</t>
-  </si>
-  <si>
-    <t>3017843874-3143027025</t>
-  </si>
-  <si>
-    <t>3023306410-3003446698-3005400720</t>
-  </si>
-  <si>
-    <t>3042113374-3016254865-3012997612</t>
-  </si>
-  <si>
-    <t>3144748672-3213112050-3106941903</t>
-  </si>
-  <si>
-    <t>3043445251-3003765369-3004351352</t>
-  </si>
-  <si>
-    <t>3117732675-3103906768-3125181901</t>
-  </si>
-  <si>
-    <t>3008151499</t>
-  </si>
-  <si>
-    <t>3014320392-3015380051</t>
-  </si>
-  <si>
-    <t>3014631170-3003109946</t>
-  </si>
-  <si>
-    <t>3044140570-3006619610</t>
-  </si>
-  <si>
-    <t>3017082213-3212323133-3152392498</t>
-  </si>
-  <si>
-    <t>3146839506</t>
-  </si>
-  <si>
-    <t>3157066242-3135714133-4228855</t>
-  </si>
-  <si>
-    <t>3736153-3005364400-3072544</t>
-  </si>
-  <si>
-    <t>3126039779-7271603-3114010997</t>
   </si>
   <si>
     <t>JA</t>
@@ -600,7 +705,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -954,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,10 +1141,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
-        <v>1000</v>
+        <v>416</v>
       </c>
       <c r="B2">
-        <v>2966982</v>
+        <v>2964478</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1051,61 +1156,61 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>10.97778129577637</v>
+        <v>10.97966480255127</v>
       </c>
       <c r="H2">
-        <v>-74.842529296875</v>
+        <v>-74.80977630615234</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="J2">
-        <v>7002431943</v>
+        <v>7002431953</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L2">
         <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S2">
-        <v>3143011484</v>
+        <v>3014792931</v>
       </c>
       <c r="T2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V2" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W2" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X2">
-        <v>2.441</v>
+        <v>1.921</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1113,10 +1218,10 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>452</v>
       </c>
       <c r="B3">
-        <v>2949112</v>
+        <v>2967561</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1128,61 +1233,61 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>10.98295974731445</v>
+        <v>10.98325061798096</v>
       </c>
       <c r="H3">
-        <v>-74.83267211914062</v>
+        <v>-74.80337524414062</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J3">
-        <v>7002431772</v>
+        <v>7002432467</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S3">
-        <v>3109803456</v>
+        <v>3006385909</v>
       </c>
       <c r="T3" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V3" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W3" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X3">
-        <v>0.745</v>
+        <v>0.992</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1190,10 +1295,10 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1">
-        <v>682</v>
+        <v>49</v>
       </c>
       <c r="B4">
-        <v>2967157</v>
+        <v>2967291</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1205,61 +1310,61 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>10.99570846557617</v>
+        <v>10.98511409759521</v>
       </c>
       <c r="H4">
-        <v>-74.84067535400391</v>
+        <v>-74.78804779052734</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="J4">
-        <v>7002432066</v>
+        <v>7002432248</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S4">
-        <v>3172760918</v>
+        <v>3016070254</v>
       </c>
       <c r="T4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="U4" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V4" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W4" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X4">
-        <v>0.05</v>
+        <v>1.277</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1267,10 +1372,10 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1">
-        <v>36</v>
+        <v>448</v>
       </c>
       <c r="B5">
-        <v>2965141</v>
+        <v>2967474</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1279,64 +1384,64 @@
         <v>44601</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G5">
-        <v>10.99570846557617</v>
+        <v>10.99482822418213</v>
       </c>
       <c r="H5">
-        <v>-74.84067535400391</v>
+        <v>-74.78803253173828</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="J5">
-        <v>7002432132</v>
+        <v>7002432408</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S5">
-        <v>3184001236</v>
+        <v>3143027025</v>
       </c>
       <c r="T5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="U5" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V5" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W5" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X5">
-        <v>0.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -1344,10 +1449,10 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>441</v>
       </c>
       <c r="B6">
-        <v>2964052</v>
+        <v>2967030</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1356,64 +1461,64 @@
         <v>44601</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>11.00191307067871</v>
+        <v>11.00149631500244</v>
       </c>
       <c r="H6">
-        <v>-74.83025360107422</v>
+        <v>-74.80015563964844</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J6">
-        <v>7002432412</v>
+        <v>7002431941</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L6">
         <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S6">
-        <v>3002414841</v>
+        <v>3008853811</v>
       </c>
       <c r="T6" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V6" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W6" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X6">
-        <v>0.179</v>
+        <v>2.444</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1421,10 +1526,10 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1">
-        <v>399</v>
+        <v>685</v>
       </c>
       <c r="B7">
-        <v>2962393</v>
+        <v>2967350</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1433,64 +1538,64 @@
         <v>44601</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>11.00191307067871</v>
+        <v>10.99899864196777</v>
       </c>
       <c r="H7">
-        <v>-74.83025360107422</v>
+        <v>-74.80156707763672</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="J7">
-        <v>7002431656</v>
+        <v>7002432288</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L7">
         <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S7">
-        <v>3015339254</v>
+        <v>3168748238</v>
       </c>
       <c r="T7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V7" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X7">
-        <v>1.442</v>
+        <v>1.086</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1498,10 +1603,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8">
-        <v>2966852</v>
+        <v>2966739</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1510,64 +1615,64 @@
         <v>44601</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>10.99914264678955</v>
+        <v>11.00480079650879</v>
       </c>
       <c r="H8">
-        <v>-74.8282470703125</v>
+        <v>-74.8116455078125</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J8">
-        <v>7002432128</v>
+        <v>7002431651</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S8">
-        <v>3004005951</v>
+        <v>3008155651</v>
       </c>
       <c r="T8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="U8" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V8" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W8" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X8">
-        <v>0.745</v>
+        <v>0.1</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1575,10 +1680,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B9">
-        <v>2967518</v>
+        <v>2964709</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1587,64 +1692,64 @@
         <v>44601</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>10.99525833129883</v>
+        <v>11.01517295837402</v>
       </c>
       <c r="H9">
-        <v>-74.82118988037109</v>
+        <v>-74.80654144287109</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="J9">
-        <v>7002432442</v>
+        <v>7002431843</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S9">
-        <v>3015910076</v>
+        <v>3014320392</v>
       </c>
       <c r="T9" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="U9" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V9" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W9" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X9">
-        <v>2.087</v>
+        <v>0.451</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1664,10 +1769,10 @@
         <v>44601</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>10.99208354949951</v>
@@ -1676,7 +1781,7 @@
         <v>-74.82035827636719</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J10">
         <v>7002431727</v>
@@ -1688,37 +1793,37 @@
         <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S10">
         <v>3125001644</v>
       </c>
       <c r="T10" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="U10" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V10" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X10">
         <v>0.229</v>
@@ -1741,10 +1846,10 @@
         <v>44601</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G11">
         <v>10.99208354949951</v>
@@ -1753,7 +1858,7 @@
         <v>-74.82035827636719</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J11">
         <v>7002431729</v>
@@ -1765,37 +1870,37 @@
         <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S11">
         <v>3223943335</v>
       </c>
       <c r="T11" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="U11" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V11" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W11" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X11">
         <v>5.001</v>
@@ -1806,10 +1911,10 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1">
-        <v>1002</v>
+        <v>357</v>
       </c>
       <c r="B12">
-        <v>2967193</v>
+        <v>2950002</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1818,64 +1923,64 @@
         <v>44601</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G12">
-        <v>10.97892475128174</v>
+        <v>11.02181053161621</v>
       </c>
       <c r="H12">
-        <v>-74.81726837158203</v>
+        <v>-74.87113952636719</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="J12">
-        <v>7002432139</v>
+        <v>7002431600</v>
       </c>
       <c r="K12">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S12">
-        <v>3162784249</v>
+        <v>3014631170</v>
       </c>
       <c r="T12" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="U12" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V12" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W12" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X12">
-        <v>0.798</v>
+        <v>0.97</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1883,10 +1988,10 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B13">
-        <v>2966739</v>
+        <v>2965985</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1895,64 +2000,64 @@
         <v>44601</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>11.00480079650879</v>
+        <v>11.03202056884766</v>
       </c>
       <c r="H13">
-        <v>-74.8116455078125</v>
+        <v>-74.87136840820312</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="J13">
-        <v>7002431651</v>
+        <v>7002431719</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S13">
-        <v>3008155651</v>
+        <v>3006619610</v>
       </c>
       <c r="T13" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="U13" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V13" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W13" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X13">
-        <v>0.1</v>
+        <v>0.719</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1960,10 +2065,10 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="B14">
-        <v>2963687</v>
+        <v>2966982</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1972,75 +2077,75 @@
         <v>44601</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>10.97611999511719</v>
+        <v>10.97778129577637</v>
       </c>
       <c r="H14">
-        <v>-74.78810119628906</v>
+        <v>-74.842529296875</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="J14">
-        <v>7002432328</v>
+        <v>7002431943</v>
       </c>
       <c r="K14">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L14">
         <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S14">
-        <v>3003426887</v>
+        <v>3143011484</v>
       </c>
       <c r="T14" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="U14" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V14" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X14">
-        <v>0.15</v>
+        <v>2.441</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="1">
-        <v>683</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>2967198</v>
+        <v>2949112</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2049,64 +2154,64 @@
         <v>44601</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>10.93458271026611</v>
+        <v>10.98295974731445</v>
       </c>
       <c r="H15">
-        <v>-74.80440521240234</v>
+        <v>-74.83267211914062</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J15">
-        <v>7002432096</v>
+        <v>7002431772</v>
       </c>
       <c r="K15">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S15">
-        <v>3003006831</v>
+        <v>3109803456</v>
       </c>
       <c r="T15" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="U15" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V15" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W15" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X15">
-        <v>0.249</v>
+        <v>0.745</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -2114,10 +2219,10 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B16">
-        <v>2964515</v>
+        <v>2967157</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2126,64 +2231,64 @@
         <v>44601</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>10.93748188018799</v>
+        <v>10.99570846557617</v>
       </c>
       <c r="H16">
-        <v>-74.790283203125</v>
+        <v>-74.84067535400391</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J16">
-        <v>7002431717</v>
+        <v>7002432066</v>
       </c>
       <c r="K16">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="L16">
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S16">
-        <v>3218445807</v>
+        <v>3172760918</v>
       </c>
       <c r="T16" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V16" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W16" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X16">
-        <v>1.432</v>
+        <v>0.05</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -2191,10 +2296,10 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>2949958</v>
+        <v>2965141</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2203,64 +2308,64 @@
         <v>44601</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>10.93268775939941</v>
+        <v>10.99570846557617</v>
       </c>
       <c r="H17">
-        <v>-74.78943634033203</v>
+        <v>-74.84067535400391</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="J17">
-        <v>7002432159</v>
+        <v>7002432132</v>
       </c>
       <c r="K17">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S17">
-        <v>3046167841</v>
+        <v>3184001236</v>
       </c>
       <c r="T17" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="U17" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V17" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X17">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -2268,10 +2373,10 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>678</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>2965168</v>
+        <v>2964052</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2280,64 +2385,64 @@
         <v>44601</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18">
-        <v>10.94451999664307</v>
+        <v>11.00191307067871</v>
       </c>
       <c r="H18">
-        <v>-74.78980255126953</v>
+        <v>-74.83025360107422</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="J18">
-        <v>7002431687</v>
+        <v>7002432412</v>
       </c>
       <c r="K18">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S18">
-        <v>3243458422</v>
+        <v>3002414841</v>
       </c>
       <c r="T18" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="U18" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V18" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X18">
-        <v>0.745</v>
+        <v>0.179</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -2345,10 +2450,10 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="B19">
-        <v>2954864</v>
+        <v>2962393</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2360,61 +2465,61 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G19">
-        <v>10.95140171051025</v>
+        <v>11.00191307067871</v>
       </c>
       <c r="H19">
-        <v>-74.79917907714844</v>
+        <v>-74.83025360107422</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="J19">
-        <v>7002431672</v>
+        <v>7002431656</v>
       </c>
       <c r="K19">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S19">
-        <v>3122067524</v>
+        <v>3015339254</v>
       </c>
       <c r="T19" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="U19" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V19" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X19">
-        <v>1.03</v>
+        <v>1.442</v>
       </c>
       <c r="Y19">
         <v>2</v>
@@ -2422,10 +2527,10 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>437</v>
       </c>
       <c r="B20">
-        <v>2959024</v>
+        <v>2966852</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2437,61 +2542,61 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20">
-        <v>10.96424674987793</v>
+        <v>10.99914264678955</v>
       </c>
       <c r="H20">
-        <v>-74.79908752441406</v>
+        <v>-74.8282470703125</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="J20">
-        <v>7002432347</v>
+        <v>7002432128</v>
       </c>
       <c r="K20">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>72</v>
       </c>
       <c r="M20" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S20">
-        <v>3017514173</v>
+        <v>3004005951</v>
       </c>
       <c r="T20" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="U20" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V20" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W20" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X20">
-        <v>0.063</v>
+        <v>0.745</v>
       </c>
       <c r="Y20">
         <v>2</v>
@@ -2499,10 +2604,10 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>48</v>
+        <v>449</v>
       </c>
       <c r="B21">
-        <v>2967223</v>
+        <v>2967518</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2511,64 +2616,64 @@
         <v>44601</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G21">
-        <v>10.96424674987793</v>
+        <v>10.99525833129883</v>
       </c>
       <c r="H21">
-        <v>-74.79908752441406</v>
+        <v>-74.82118988037109</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J21">
-        <v>7002432151</v>
+        <v>7002432442</v>
       </c>
       <c r="K21">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S21">
-        <v>3116354060</v>
+        <v>3015910076</v>
       </c>
       <c r="T21" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="U21" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V21" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W21" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>2.087</v>
       </c>
       <c r="Y21">
         <v>2</v>
@@ -2576,10 +2681,10 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>986</v>
       </c>
       <c r="B22">
-        <v>2965641</v>
+        <v>2956413</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2588,64 +2693,64 @@
         <v>44601</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22">
-        <v>10.96498203277588</v>
+        <v>11.00696754455566</v>
       </c>
       <c r="H22">
-        <v>-74.80244445800781</v>
+        <v>-74.82685852050781</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J22">
-        <v>7002432057</v>
+        <v>7002431714</v>
       </c>
       <c r="K22">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>72</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N22" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S22">
-        <v>3117234835</v>
+        <v>3126039779</v>
       </c>
       <c r="T22" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="U22" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V22" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W22" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X22">
-        <v>0.944</v>
+        <v>0.865</v>
       </c>
       <c r="Y22">
         <v>2</v>
@@ -2653,10 +2758,10 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="B23">
-        <v>2965649</v>
+        <v>2967520</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -2665,64 +2770,64 @@
         <v>44601</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G23">
-        <v>10.9726390838623</v>
+        <v>11.01446342468262</v>
       </c>
       <c r="H23">
-        <v>-74.8011474609375</v>
+        <v>-74.82730865478516</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="J23">
-        <v>7002431593</v>
+        <v>7002432438</v>
       </c>
       <c r="K23">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N23" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S23">
-        <v>3006092270</v>
+        <v>3008151499</v>
       </c>
       <c r="T23" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="U23" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V23" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W23" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X23">
-        <v>1.329</v>
+        <v>0.39</v>
       </c>
       <c r="Y23">
         <v>2</v>
@@ -2730,10 +2835,10 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1">
-        <v>443</v>
+        <v>1002</v>
       </c>
       <c r="B24">
-        <v>2967123</v>
+        <v>2967193</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2742,64 +2847,64 @@
         <v>44601</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>10.97214889526367</v>
+        <v>10.97892475128174</v>
       </c>
       <c r="H24">
-        <v>-74.80821990966797</v>
+        <v>-74.81726837158203</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="J24">
-        <v>7002432280</v>
+        <v>7002432139</v>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24">
         <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N24" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S24">
-        <v>3003214986</v>
+        <v>3162784249</v>
       </c>
       <c r="T24" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="U24" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V24" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W24" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X24">
-        <v>0.987</v>
+        <v>0.798</v>
       </c>
       <c r="Y24">
         <v>2</v>
@@ -2807,10 +2912,10 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1">
-        <v>416</v>
+        <v>676</v>
       </c>
       <c r="B25">
-        <v>2964478</v>
+        <v>2964489</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -2819,64 +2924,64 @@
         <v>44601</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G25">
-        <v>10.97966480255127</v>
+        <v>10.96224308013916</v>
       </c>
       <c r="H25">
-        <v>-74.80977630615234</v>
+        <v>-74.81613159179688</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J25">
-        <v>7002431953</v>
+        <v>7002431688</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L25">
         <v>72</v>
       </c>
       <c r="M25" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S25">
-        <v>3014792931</v>
+        <v>3146839506</v>
       </c>
       <c r="T25" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="U25" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V25" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W25" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X25">
-        <v>1.921</v>
+        <v>0.972</v>
       </c>
       <c r="Y25">
         <v>2</v>
@@ -2884,10 +2989,10 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="1">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>2967561</v>
+        <v>2963687</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2896,64 +3001,64 @@
         <v>44601</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G26">
-        <v>10.98325061798096</v>
+        <v>10.97611999511719</v>
       </c>
       <c r="H26">
-        <v>-74.80337524414062</v>
+        <v>-74.78810119628906</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="J26">
-        <v>7002432467</v>
+        <v>7002432328</v>
       </c>
       <c r="K26">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L26">
         <v>72</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N26" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O26" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S26">
-        <v>3006385909</v>
+        <v>3003426887</v>
       </c>
       <c r="T26" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="U26" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V26" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W26" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X26">
-        <v>0.992</v>
+        <v>0.15</v>
       </c>
       <c r="Y26">
         <v>2</v>
@@ -2961,10 +3066,10 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="1">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="B27">
-        <v>2967291</v>
+        <v>2967217</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2973,64 +3078,64 @@
         <v>44601</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G27">
-        <v>10.98511409759521</v>
+        <v>10.99099445343018</v>
       </c>
       <c r="H27">
-        <v>-74.78804779052734</v>
+        <v>-74.78353118896484</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J27">
-        <v>7002432248</v>
+        <v>7002432284</v>
       </c>
       <c r="K27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L27">
         <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N27" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S27">
-        <v>3016070254</v>
+        <v>3173499042</v>
       </c>
       <c r="T27" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="U27" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V27" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W27" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X27">
-        <v>1.277</v>
+        <v>0.104</v>
       </c>
       <c r="Y27">
         <v>2</v>
@@ -3038,10 +3143,10 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="1">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B28">
-        <v>2967217</v>
+        <v>2967178</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3053,7 +3158,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G28">
         <v>10.99099445343018</v>
@@ -3062,10 +3167,10 @@
         <v>-74.78353118896484</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="J28">
-        <v>7002432284</v>
+        <v>7002432247</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -3074,40 +3179,40 @@
         <v>72</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S28">
         <v>3173499042</v>
       </c>
       <c r="T28" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="U28" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V28" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W28" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X28">
-        <v>0.104</v>
+        <v>0.271</v>
       </c>
       <c r="Y28">
         <v>2</v>
@@ -3115,10 +3220,10 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="1">
-        <v>445</v>
+        <v>686</v>
       </c>
       <c r="B29">
-        <v>2967178</v>
+        <v>2967367</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3127,75 +3232,75 @@
         <v>44601</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G29">
-        <v>10.99099445343018</v>
+        <v>10.95015811920166</v>
       </c>
       <c r="H29">
-        <v>-74.78353118896484</v>
+        <v>-74.85592651367188</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="J29">
-        <v>7002432247</v>
+        <v>7002432299</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L29">
         <v>72</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S29">
-        <v>3173499042</v>
+        <v>3017082213</v>
       </c>
       <c r="T29" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="U29" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V29" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W29" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X29">
-        <v>0.271</v>
+        <v>0.122</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="1">
-        <v>448</v>
+        <v>684</v>
       </c>
       <c r="B30">
-        <v>2967474</v>
+        <v>2967337</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3207,72 +3312,72 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G30">
-        <v>10.99482822418213</v>
+        <v>10.95015811920166</v>
       </c>
       <c r="H30">
-        <v>-74.78803253173828</v>
+        <v>-74.85592651367188</v>
       </c>
       <c r="I30" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="J30">
-        <v>7002432408</v>
+        <v>7002432292</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L30">
         <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O30" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S30">
-        <v>3143027025</v>
+        <v>3212323133</v>
       </c>
       <c r="T30" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="U30" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V30" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W30" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X30">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="1">
-        <v>438</v>
+        <v>683</v>
       </c>
       <c r="B31">
-        <v>2966917</v>
+        <v>2967198</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -3284,72 +3389,72 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G31">
-        <v>10.95276832580566</v>
+        <v>10.93458271026611</v>
       </c>
       <c r="H31">
-        <v>-74.78013610839844</v>
+        <v>-74.80440521240234</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="J31">
-        <v>7002431933</v>
+        <v>7002432096</v>
       </c>
       <c r="K31">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L31">
         <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O31" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S31">
-        <v>3005400720</v>
+        <v>3003006831</v>
       </c>
       <c r="T31" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="U31" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V31" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W31" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X31">
-        <v>0.07000000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="1">
-        <v>451</v>
+        <v>671</v>
       </c>
       <c r="B32">
-        <v>2967535</v>
+        <v>2960952</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3361,61 +3466,61 @@
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>11.00435161590576</v>
+        <v>10.92058753967285</v>
       </c>
       <c r="H32">
-        <v>-74.83413696289062</v>
+        <v>-74.80829620361328</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J32">
-        <v>7002432444</v>
+        <v>7002431711</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="L32">
         <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N32" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S32">
-        <v>3042113374</v>
+        <v>3058112673</v>
       </c>
       <c r="T32" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="U32" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V32" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W32" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X32">
-        <v>0.242</v>
+        <v>0.822</v>
       </c>
       <c r="Y32">
         <v>3</v>
@@ -3423,10 +3528,10 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="1">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="B33">
-        <v>2966925</v>
+        <v>2955730</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3438,61 +3543,61 @@
         <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G33">
-        <v>11.00435161590576</v>
+        <v>10.91276359558105</v>
       </c>
       <c r="H33">
-        <v>-74.83413696289062</v>
+        <v>-74.80815124511719</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J33">
-        <v>7002432379</v>
+        <v>7002420639</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="L33">
         <v>72</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N33" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O33" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S33">
-        <v>3213824925</v>
+        <v>3242140609</v>
       </c>
       <c r="T33" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="U33" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V33" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W33" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X33">
-        <v>1.22</v>
+        <v>1.825</v>
       </c>
       <c r="Y33">
         <v>3</v>
@@ -3500,10 +3605,10 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="1">
-        <v>442</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>2967091</v>
+        <v>2949958</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3512,64 +3617,64 @@
         <v>44601</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G34">
-        <v>11.00435161590576</v>
+        <v>10.93268775939941</v>
       </c>
       <c r="H34">
-        <v>-74.83413696289062</v>
+        <v>-74.78943634033203</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J34">
-        <v>7002432029</v>
+        <v>7002432159</v>
       </c>
       <c r="K34">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="L34">
         <v>72</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S34">
-        <v>3003765369</v>
+        <v>3046167841</v>
       </c>
       <c r="T34" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="U34" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V34" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W34" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X34">
-        <v>3.93</v>
+        <v>0.23</v>
       </c>
       <c r="Y34">
         <v>3</v>
@@ -3577,10 +3682,10 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="1">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="B35">
-        <v>2962143</v>
+        <v>2967535</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3589,10 +3694,10 @@
         <v>44601</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G35">
         <v>11.00435161590576</v>
@@ -3601,10 +3706,10 @@
         <v>-74.83413696289062</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="J35">
-        <v>7002431918</v>
+        <v>7002432444</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3613,40 +3718,40 @@
         <v>72</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N35" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O35" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="S35">
-        <v>3117732675</v>
+        <v>3042113374</v>
       </c>
       <c r="T35" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="U35" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V35" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W35" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X35">
-        <v>6.408</v>
+        <v>0.242</v>
       </c>
       <c r="Y35">
         <v>3</v>
@@ -3654,10 +3759,10 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="1">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B36">
-        <v>2967520</v>
+        <v>2966925</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -3666,64 +3771,64 @@
         <v>44601</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G36">
-        <v>11.01446342468262</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H36">
-        <v>-74.82730865478516</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="J36">
-        <v>7002432438</v>
+        <v>7002432379</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L36">
         <v>72</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S36">
-        <v>3008151499</v>
+        <v>3213824925</v>
       </c>
       <c r="T36" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="U36" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V36" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W36" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X36">
-        <v>0.39</v>
+        <v>1.22</v>
       </c>
       <c r="Y36">
         <v>3</v>
@@ -3731,10 +3836,10 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="B37">
-        <v>2964709</v>
+        <v>2967091</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -3746,61 +3851,61 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G37">
-        <v>11.01517295837402</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H37">
-        <v>-74.80654144287109</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I37" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="J37">
-        <v>7002431843</v>
+        <v>7002432029</v>
       </c>
       <c r="K37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>72</v>
       </c>
       <c r="M37" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N37" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O37" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S37">
-        <v>3014320392</v>
+        <v>3003765369</v>
       </c>
       <c r="T37" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="U37" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V37" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W37" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X37">
-        <v>0.451</v>
+        <v>3.93</v>
       </c>
       <c r="Y37">
         <v>3</v>
@@ -3808,10 +3913,10 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="1">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="B38">
-        <v>2950002</v>
+        <v>2962143</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -3820,64 +3925,64 @@
         <v>44601</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G38">
-        <v>11.02181053161621</v>
+        <v>11.00435161590576</v>
       </c>
       <c r="H38">
-        <v>-74.87113952636719</v>
+        <v>-74.83413696289062</v>
       </c>
       <c r="I38" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J38">
-        <v>7002431600</v>
+        <v>7002431918</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L38">
         <v>72</v>
       </c>
       <c r="M38" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N38" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S38">
-        <v>3014631170</v>
+        <v>3117732675</v>
       </c>
       <c r="T38" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="U38" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V38" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W38" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X38">
-        <v>0.97</v>
+        <v>6.408</v>
       </c>
       <c r="Y38">
         <v>3</v>
@@ -3885,10 +3990,10 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="1">
-        <v>431</v>
+        <v>997</v>
       </c>
       <c r="B39">
-        <v>2965985</v>
+        <v>2965871</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -3900,72 +4005,72 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G39">
-        <v>11.03202056884766</v>
+        <v>10.91901683807373</v>
       </c>
       <c r="H39">
-        <v>-74.87136840820312</v>
+        <v>-74.81688690185547</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="J39">
-        <v>7002431719</v>
+        <v>7002432307</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="L39">
         <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N39" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O39" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S39">
-        <v>3006619610</v>
+        <v>3008833472</v>
       </c>
       <c r="T39" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="U39" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V39" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W39" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X39">
-        <v>0.719</v>
+        <v>0.305</v>
       </c>
       <c r="Y39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="1">
-        <v>686</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>2967367</v>
+        <v>2957001</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -3974,64 +4079,64 @@
         <v>44601</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G40">
-        <v>10.95015811920166</v>
+        <v>10.91901683807373</v>
       </c>
       <c r="H40">
-        <v>-74.85592651367188</v>
+        <v>-74.81688690185547</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J40">
-        <v>7002432299</v>
+        <v>7002423505</v>
       </c>
       <c r="K40">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="L40">
         <v>72</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="N40" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O40" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S40">
-        <v>3017082213</v>
+        <v>3052757873</v>
       </c>
       <c r="T40" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="U40" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V40" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W40" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X40">
-        <v>0.122</v>
+        <v>2.447</v>
       </c>
       <c r="Y40">
         <v>4</v>
@@ -4039,10 +4144,10 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="1">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B41">
-        <v>2967337</v>
+        <v>2966706</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -4054,61 +4159,61 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G41">
-        <v>10.95015811920166</v>
+        <v>10.90456676483154</v>
       </c>
       <c r="H41">
-        <v>-74.85592651367188</v>
+        <v>-74.80835723876953</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J41">
-        <v>7002432292</v>
+        <v>7002431607</v>
       </c>
       <c r="K41">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="L41">
         <v>72</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N41" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O41" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S41">
-        <v>3212323133</v>
+        <v>3003266674</v>
       </c>
       <c r="T41" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="U41" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V41" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W41" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X41">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="Y41">
         <v>4</v>
@@ -4116,10 +4221,10 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="1">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B42">
-        <v>2964489</v>
+        <v>2965274</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -4131,61 +4236,61 @@
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G42">
-        <v>10.96224308013916</v>
+        <v>10.90308952331543</v>
       </c>
       <c r="H42">
-        <v>-74.81613159179688</v>
+        <v>-74.79138946533203</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J42">
-        <v>7002431688</v>
+        <v>7002431793</v>
       </c>
       <c r="K42">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L42">
         <v>72</v>
       </c>
       <c r="M42" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="N42" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O42" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="S42">
-        <v>3146839506</v>
+        <v>3053232293</v>
       </c>
       <c r="T42" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="U42" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V42" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W42" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X42">
-        <v>0.972</v>
+        <v>1.223</v>
       </c>
       <c r="Y42">
         <v>4</v>
@@ -4193,10 +4298,10 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1">
-        <v>685</v>
+        <v>993</v>
       </c>
       <c r="B43">
-        <v>2967350</v>
+        <v>2962313</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -4208,61 +4313,61 @@
         <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G43">
-        <v>10.99899864196777</v>
+        <v>10.91673946380615</v>
       </c>
       <c r="H43">
-        <v>-74.80156707763672</v>
+        <v>-74.76981353759766</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="J43">
-        <v>7002432288</v>
+        <v>7002432301</v>
       </c>
       <c r="K43">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="L43">
         <v>72</v>
       </c>
       <c r="M43" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N43" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S43">
-        <v>3168748238</v>
+        <v>3005787315</v>
       </c>
       <c r="T43" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="U43" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V43" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W43" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X43">
-        <v>1.086</v>
+        <v>1.717</v>
       </c>
       <c r="Y43">
         <v>4</v>
@@ -4270,10 +4375,10 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="1">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="B44">
-        <v>2967030</v>
+        <v>2967042</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -4285,61 +4390,61 @@
         <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G44">
-        <v>11.00149631500244</v>
+        <v>10.90969753265381</v>
       </c>
       <c r="H44">
-        <v>-74.80015563964844</v>
+        <v>-74.76608276367188</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="J44">
-        <v>7002431941</v>
+        <v>7002432178</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L44">
         <v>72</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="N44" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O44" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="S44">
-        <v>3008853811</v>
+        <v>3007132598</v>
       </c>
       <c r="T44" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="U44" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V44" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W44" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X44">
-        <v>2.444</v>
+        <v>0.305</v>
       </c>
       <c r="Y44">
         <v>4</v>
@@ -4347,10 +4452,10 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="1">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="B45">
-        <v>2956413</v>
+        <v>2962829</v>
       </c>
       <c r="C45">
         <v>2022</v>
@@ -4362,63 +4467,756 @@
         <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G45">
-        <v>11.00696754455566</v>
+        <v>10.93962287902832</v>
       </c>
       <c r="H45">
-        <v>-74.82685852050781</v>
+        <v>-74.77147674560547</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="J45">
-        <v>7002431714</v>
+        <v>7002431854</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="L45">
         <v>72</v>
       </c>
       <c r="M45" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="N45" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="O45" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="P45" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="S45">
-        <v>3126039779</v>
+        <v>3054433358</v>
       </c>
       <c r="T45" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="U45" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="V45" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="W45" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="X45">
-        <v>0.865</v>
+        <v>0.825</v>
       </c>
       <c r="Y45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="1">
+        <v>438</v>
+      </c>
+      <c r="B46">
+        <v>2966917</v>
+      </c>
+      <c r="C46">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46">
+        <v>10.95276832580566</v>
+      </c>
+      <c r="H46">
+        <v>-74.78013610839844</v>
+      </c>
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46">
+        <v>7002431933</v>
+      </c>
+      <c r="K46">
+        <v>47</v>
+      </c>
+      <c r="L46">
+        <v>72</v>
+      </c>
+      <c r="M46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" t="s">
+        <v>166</v>
+      </c>
+      <c r="P46" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>172</v>
+      </c>
+      <c r="S46">
+        <v>3005400720</v>
+      </c>
+      <c r="T46" t="s">
+        <v>216</v>
+      </c>
+      <c r="U46" t="s">
+        <v>225</v>
+      </c>
+      <c r="V46" t="s">
+        <v>226</v>
+      </c>
+      <c r="W46" t="s">
+        <v>227</v>
+      </c>
+      <c r="X46">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="1">
+        <v>678</v>
+      </c>
+      <c r="B47">
+        <v>2965168</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47">
+        <v>10.94451999664307</v>
+      </c>
+      <c r="H47">
+        <v>-74.78980255126953</v>
+      </c>
+      <c r="I47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47">
+        <v>7002431687</v>
+      </c>
+      <c r="K47">
+        <v>42</v>
+      </c>
+      <c r="L47">
+        <v>72</v>
+      </c>
+      <c r="M47" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" t="s">
+        <v>166</v>
+      </c>
+      <c r="P47" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>173</v>
+      </c>
+      <c r="S47">
+        <v>3243458422</v>
+      </c>
+      <c r="T47" t="s">
+        <v>217</v>
+      </c>
+      <c r="U47" t="s">
+        <v>225</v>
+      </c>
+      <c r="V47" t="s">
+        <v>226</v>
+      </c>
+      <c r="W47" t="s">
+        <v>227</v>
+      </c>
+      <c r="X47">
+        <v>0.745</v>
+      </c>
+      <c r="Y47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="1">
+        <v>677</v>
+      </c>
+      <c r="B48">
+        <v>2964515</v>
+      </c>
+      <c r="C48">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48">
+        <v>10.93748188018799</v>
+      </c>
+      <c r="H48">
+        <v>-74.790283203125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48">
+        <v>7002431717</v>
+      </c>
+      <c r="K48">
+        <v>44</v>
+      </c>
+      <c r="L48">
+        <v>72</v>
+      </c>
+      <c r="M48" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48" t="s">
+        <v>165</v>
+      </c>
+      <c r="O48" t="s">
+        <v>166</v>
+      </c>
+      <c r="P48" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>173</v>
+      </c>
+      <c r="S48">
+        <v>3218445807</v>
+      </c>
+      <c r="T48" t="s">
+        <v>218</v>
+      </c>
+      <c r="U48" t="s">
+        <v>225</v>
+      </c>
+      <c r="V48" t="s">
+        <v>226</v>
+      </c>
+      <c r="W48" t="s">
+        <v>227</v>
+      </c>
+      <c r="X48">
+        <v>1.432</v>
+      </c>
+      <c r="Y48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="1">
+        <v>364</v>
+      </c>
+      <c r="B49">
+        <v>2954864</v>
+      </c>
+      <c r="C49">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49">
+        <v>10.95140171051025</v>
+      </c>
+      <c r="H49">
+        <v>-74.79917907714844</v>
+      </c>
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49">
+        <v>7002431672</v>
+      </c>
+      <c r="K49">
+        <v>38</v>
+      </c>
+      <c r="L49">
+        <v>72</v>
+      </c>
+      <c r="M49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N49" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49" t="s">
+        <v>166</v>
+      </c>
+      <c r="P49" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>173</v>
+      </c>
+      <c r="S49">
+        <v>3122067524</v>
+      </c>
+      <c r="T49" t="s">
+        <v>219</v>
+      </c>
+      <c r="U49" t="s">
+        <v>225</v>
+      </c>
+      <c r="V49" t="s">
+        <v>226</v>
+      </c>
+      <c r="W49" t="s">
+        <v>227</v>
+      </c>
+      <c r="X49">
+        <v>1.03</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="1">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>2959024</v>
+      </c>
+      <c r="C50">
+        <v>2022</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50">
+        <v>10.96424674987793</v>
+      </c>
+      <c r="H50">
+        <v>-74.79908752441406</v>
+      </c>
+      <c r="I50" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50">
+        <v>7002432347</v>
+      </c>
+      <c r="K50">
+        <v>26</v>
+      </c>
+      <c r="L50">
+        <v>72</v>
+      </c>
+      <c r="M50" t="s">
+        <v>163</v>
+      </c>
+      <c r="N50" t="s">
+        <v>165</v>
+      </c>
+      <c r="O50" t="s">
+        <v>166</v>
+      </c>
+      <c r="P50" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
+        <v>173</v>
+      </c>
+      <c r="S50">
+        <v>3017514173</v>
+      </c>
+      <c r="T50" t="s">
+        <v>220</v>
+      </c>
+      <c r="U50" t="s">
+        <v>225</v>
+      </c>
+      <c r="V50" t="s">
+        <v>226</v>
+      </c>
+      <c r="W50" t="s">
+        <v>227</v>
+      </c>
+      <c r="X50">
+        <v>0.063</v>
+      </c>
+      <c r="Y50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>2967223</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51">
+        <v>10.96424674987793</v>
+      </c>
+      <c r="H51">
+        <v>-74.79908752441406</v>
+      </c>
+      <c r="I51" t="s">
+        <v>159</v>
+      </c>
+      <c r="J51">
+        <v>7002432151</v>
+      </c>
+      <c r="K51">
+        <v>26</v>
+      </c>
+      <c r="L51">
+        <v>72</v>
+      </c>
+      <c r="M51" t="s">
+        <v>163</v>
+      </c>
+      <c r="N51" t="s">
+        <v>165</v>
+      </c>
+      <c r="O51" t="s">
+        <v>166</v>
+      </c>
+      <c r="P51" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
+        <v>172</v>
+      </c>
+      <c r="S51">
+        <v>3116354060</v>
+      </c>
+      <c r="T51" t="s">
+        <v>221</v>
+      </c>
+      <c r="U51" t="s">
+        <v>225</v>
+      </c>
+      <c r="V51" t="s">
+        <v>226</v>
+      </c>
+      <c r="W51" t="s">
+        <v>227</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="1">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>2965641</v>
+      </c>
+      <c r="C52">
+        <v>2022</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52">
+        <v>10.96498203277588</v>
+      </c>
+      <c r="H52">
+        <v>-74.80244445800781</v>
+      </c>
+      <c r="I52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52">
+        <v>7002432057</v>
+      </c>
+      <c r="K52">
+        <v>26</v>
+      </c>
+      <c r="L52">
+        <v>72</v>
+      </c>
+      <c r="M52" t="s">
+        <v>163</v>
+      </c>
+      <c r="N52" t="s">
+        <v>165</v>
+      </c>
+      <c r="O52" t="s">
+        <v>166</v>
+      </c>
+      <c r="P52" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
+        <v>173</v>
+      </c>
+      <c r="S52">
+        <v>3117234835</v>
+      </c>
+      <c r="T52" t="s">
+        <v>222</v>
+      </c>
+      <c r="U52" t="s">
+        <v>225</v>
+      </c>
+      <c r="V52" t="s">
+        <v>226</v>
+      </c>
+      <c r="W52" t="s">
+        <v>227</v>
+      </c>
+      <c r="X52">
+        <v>0.944</v>
+      </c>
+      <c r="Y52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="1">
+        <v>38</v>
+      </c>
+      <c r="B53">
+        <v>2965649</v>
+      </c>
+      <c r="C53">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53">
+        <v>10.9726390838623</v>
+      </c>
+      <c r="H53">
+        <v>-74.8011474609375</v>
+      </c>
+      <c r="I53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J53">
+        <v>7002431593</v>
+      </c>
+      <c r="K53">
+        <v>24</v>
+      </c>
+      <c r="L53">
+        <v>72</v>
+      </c>
+      <c r="M53" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" t="s">
+        <v>165</v>
+      </c>
+      <c r="O53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P53" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>172</v>
+      </c>
+      <c r="S53">
+        <v>3006092270</v>
+      </c>
+      <c r="T53" t="s">
+        <v>223</v>
+      </c>
+      <c r="U53" t="s">
+        <v>225</v>
+      </c>
+      <c r="V53" t="s">
+        <v>226</v>
+      </c>
+      <c r="W53" t="s">
+        <v>227</v>
+      </c>
+      <c r="X53">
+        <v>1.329</v>
+      </c>
+      <c r="Y53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="1">
+        <v>443</v>
+      </c>
+      <c r="B54">
+        <v>2967123</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44601</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54">
+        <v>10.97214889526367</v>
+      </c>
+      <c r="H54">
+        <v>-74.80821990966797</v>
+      </c>
+      <c r="I54" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54">
+        <v>7002432280</v>
+      </c>
+      <c r="K54">
+        <v>24</v>
+      </c>
+      <c r="L54">
+        <v>72</v>
+      </c>
+      <c r="M54" t="s">
+        <v>163</v>
+      </c>
+      <c r="N54" t="s">
+        <v>165</v>
+      </c>
+      <c r="O54" t="s">
+        <v>166</v>
+      </c>
+      <c r="P54" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>172</v>
+      </c>
+      <c r="S54">
+        <v>3003214986</v>
+      </c>
+      <c r="T54" t="s">
+        <v>224</v>
+      </c>
+      <c r="U54" t="s">
+        <v>225</v>
+      </c>
+      <c r="V54" t="s">
+        <v>226</v>
+      </c>
+      <c r="W54" t="s">
+        <v>227</v>
+      </c>
+      <c r="X54">
+        <v>0.987</v>
+      </c>
+      <c r="Y54">
         <v>4</v>
       </c>
     </row>
